--- a/QALD9-Plus-testing/zero-shot-entity-aligned/zero-shot-entity-aligned-dbpedia-wikidata/zero_shot_llama_wikidata_results_analysis.xlsx
+++ b/QALD9-Plus-testing/zero-shot-entity-aligned/zero-shot-entity-aligned-dbpedia-wikidata/zero_shot_llama_wikidata_results_analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meine Ablage\Master Thesis\SPARQL-Query-Translation-QALD9\QALD9-Plus-testing\zero-shot-entity-aligned\zero-shot-entity-aligned-dbpedia-wikidata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6D10B75-E6FF-4018-8AA0-FC7DD4894A29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB6A7FF-D573-49FE-B77A-3C3A1059979C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="453">
   <si>
     <t>Question</t>
   </si>
@@ -349,306 +349,6 @@
     <t>Who created Goofy?</t>
   </si>
   <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?uri WHERE { wd:Q1336200 wdt:P112 ?uri . wd:Q3374730 wdt:P112 ?uri . }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P57 wd:Q2001 }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri rdf:type wd:Musical ; pr:P86 wd:Q2808 . }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { wd:Q40984 wdt:P178 ?uri. }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://www.wikidata.org/entity/Q476028&gt; ; &lt;http://www.wikidata.org/entity/P118&gt; &lt;http://www.wikidata.org/entity/Q82595&gt; }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { ?x wdt:P57 wd:Q16297 ; wdt:P161 ?uri }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?item WHERE { ?item wdt:P2044 ?elevation . FILTER( ?elevation = (xsd:integer max(?elevation)) ) } ORDER BY DESC(?elevation) OFFSET 0 LIMIT 1</t>
-  </si>
-  <si>
-    <t>PREFIX wikidata: &lt;http://www.wikidata.org/entity/&gt; SELECT (COUNT(DISTINCT ?film) AS ?c) WHERE { ?film a wikidata:Q11424 ; wikidata:P161 wikidata:Q38111 . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?date WHERE { wd:Q53713 wdt:P570 ?date }</t>
-  </si>
-  <si>
-    <t>`SELECT DISTINCT ?uri ` `WHERE { ?uri P161 wd:Q34851 ; P161 wd:Q151973 }`</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { &lt;http://www.wikidata.org/entity/Q49740&gt; &lt;http://www.wikidata.org/entity/P178&gt; ?uri }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?n WHERE { wd:Q2608065 wdt:P2769 ?n }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { ?x wdt:P31 wd:Q482994 ; wdt:P175 wd:Q303 ; wdt:P577 ?y ; wdt:P264 ?uri } ORDER BY ASC(?y) OFFSET 0 LIMIT 1</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?runtime WHERE { wd:Q171048 wikidata:P2047 ?runtime . }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P106 wd:Q5280538 ; wdt:P1303 wd:Q119621 }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?film WHERE { ?film a &lt;http://www.wikidata.org/entity/Q11424&gt;; &lt;http://www.wikidata.org/entity/P161&gt; &lt;http://www.wikidata.org/entity/Q40523&gt;; &lt;http://www.wikidata.org/entity/P57&gt; &lt;http://www.wikidata.org/entity/Q315087&gt; }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { wd:Q241665 wdt:P569 ?uri }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?cause (COUNT(DISTINCT ?entity) AS ?count) WHERE { ?entity a wd:Q5 . all entities ?entity wd:P509 ?cause . GROUP BY ?cause } ORDER BY DESC(?count) OFFSET 0 LIMIT 1</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?num WHERE { wd:Q1207989 wdt:P2048 ?num }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wdt:Q8502 ; wdt:P131 wd:Q38 ; wdt:P2044 ?num } ORDER BY DESC(?num) OFFSET 0 LIMIT 1</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { wd:Q937 wdt:P184 ?uri }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?owner WHERE { ?owner wdt:P127 wd:Q22686. }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri &lt;http://www.wikidata.org/entity/P26&gt; &lt;http://www.wikidata.org/entity/Q37079&gt; . }</t>
-  </si>
-  <si>
-    <t>PREFIX wkt: &lt;http://www.wikidata.org/ontology/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?population WHERE { wd:Q5401 wkt:P1082 ?population }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?Author WHERE { wd:Q726382 wdt:P50 ?Author }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?date WHERE { wd:Q11806 wdt:P569 ?date }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?europop WHERE { wd:Q458 wdt:P1082 ?europop . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?currency WHERE { ?china wdt:P31 wd:Q142. ?china wdt:P38 ?currency }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?x WHERE { wd:Q692 wdt:P570 ?x }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://www.wikidata.org/entity/Q41291&gt; ; &lt;http://www.wikidata.org/entity/P448&gt; &lt;http://www.wikidata.org/entity/Q177477&gt; . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q23442 ; wdt:P17 wd:Q17 }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { wd:Q131007 wdt:P178 ?uri . ?uri wdt:P178 ?developer . }</t>
-  </si>
-  <si>
-    <t>SELECT (COUNT(DISTINCT ?uri) AS ?c) WHERE { ?uri a &lt;http://www.wikidata.org/entity/Q4830453&gt; . ?uri &lt;http://www.wikidata.org/entity/P452&gt; ?industry . FILTER regex(?industry, "advertising", "i") . UNION { ?uri &lt;http://www.wikidata.org/entity/P452&gt; &lt;http://www.wikidata.org/entity/Q854995&gt; . } UNION { ?uri &lt;http://www.wikidata.org/entity/P452&gt; &lt;http://www.wikidata.org/entity/Q37038&gt; . } UNION { ?uri &lt;http://www.wikidata.org/entity/P452&gt; &lt;http://www.wikidata.org/entity/Q1286627&gt; . } }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?university WHERE { wd:Q567 wdt:P69 ?university }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://www.wikidata.org/entity/Q15416&gt; ; &lt;http://www.wikidata.org/entity/P161&gt; &lt;http://www.wikidata.org/entity/Q485310&gt; }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://www.wikidata.org/entity/statement/Q11424&gt; ; &lt;http://www.wikidata.org/entity/P161&gt; &lt;http://www.wikidata.org/entity/Q37079&gt; . }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { wd:Q513 wdt:P131 ?uri . ?uri wdt:P17 "Country" . }</t>
-  </si>
-  <si>
-    <t>SELECT ?uri WHERE { &lt;http://www.wikidata.org/entity/Q9696&gt; &lt;http://www.wikidata.org/entity/P20&gt; ?uri . }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { wdt:Q125006 wdt:P177 ?uri }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://www.wikidata.org/entity/Q10843402&gt; ; &lt;http://www.wikidata.org/entity/P19&gt; &lt;http://www.wikidata.org/entity/Q649&gt; . }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wdt:Q11424 ; wdt:P179 wdt:P161 :Alec_Guinness ; wdt:P577 ?date } ORDER BY DESC(?date) LIMIT 1</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri wdt:P2044 ?elevation . } ORDER BY DESC(?elevation) OFFSET 1 LIMIT 1</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wikibase: &lt;http://wikibase.org/ontology#&gt; SELECT ?pop WHERE { wdt:Q85 wdt:P1082 ?pop UNION wdt:Q20230483 wdt:P1082 ?pop }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q215627 ; wdt:P20 wd:Q160544. }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/property/&gt; SELECT (COUNT(DISTINCT ?child) AS ?c) WHERE { wd:Q34969 wdt:P40 ?child }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?ele WHERE { wd:Q58226 wdt:P2044 ?ele . }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { wd:Q5806 wdt:P17 ?uri }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?height WHERE { wd:Q76717 wdt:P2048 ?height }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?uri WHERE { wd:Q1163227 wdt:P50 ?uri }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { &lt;http://www.wikidata.org/entity/Q189080&gt; &lt;http://www.wikidata.org/prop/direct/P136&gt; ?uri }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?place WHERE { wikidata:Q40912 wdt:P19 ?place }</t>
-  </si>
-  <si>
-    <t>SELECT ?uri WHERE { ?uri wdt:P31 wd:Q515 ; wdt:P1082 ?pop . } ORDER BY ASC(?pop) OFFSET 0 LIMIT 1</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q15416. ?uri p:P170 wdt:Q8704. }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://www.wikidata.org/entity/Q1445650&gt; ; &lt;http://www.wikidata.org/entity/P17&gt; &lt;http://www.wikidata.org/entity/Q34&gt; . UNION ?uri a &lt;http://www.wikidata.org/entity/Q1445650&gt; ; &lt;http://www.wikidata.org/entity/P17&gt; &lt;http://www.wikidata.org/entity/Q272930&gt; . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?ni WHERE { &lt;http://www.wikidata.org/entity/Q312&gt; &lt;http://www.wikidata.org/entity/P2295&gt; ?ni . }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { wdt:Q91 wdt:P20 ?uri. }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { &lt;http://www.wikidata.org/entity/Q105981852&gt; &lt;http://www.wikidata.org/prop/direct/P17&gt; ?country . ?country &lt;http://www.wikidata.org/prop/direct/P36&gt; ?uri . UNION &lt;http://www.wikidata.org/entity/Q26235529&gt; &lt;http://www.wikidata.org/prop/direct/P17&gt; ?country . ?country &lt;http://www.wikidata.org/prop/direct/P36&gt; ?uri . UNION &lt;http://www.wikidata.org/entity/Q5451&gt; &lt;http://www.wikidata.org/prop/direct/P17&gt; ?country . ?country &lt;http://www.wikidata.org/prop/direct/P36&gt; ?uri . }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { wd:Q6386177 wdt:P17 ?uri }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/&gt; SELECT DISTINCT ?num WHERE { wd:Q41421 wdt:P2048 ?num }</t>
-  </si>
-  <si>
-    <t>PREFIX wikidata: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { ?uri wikidata:P57 wikidata:Q43203 ; wikidata:P161 wikidata:Q43203 }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri &lt;http://www.wikidata.org/entity/P38&gt; &lt;http://www.wikidata.org/entity/Q861690&gt; }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?pIraq WHERE { wd:Q796 wd:P1082 ?pIraq }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wdt:Q1445650 . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://www.wikidata.org/entity/Q7278&gt; ; &lt;http://www.wikidata.org/entity/P17&gt; &lt;http://www.wikidata.org/entity/Q41&gt; ; &lt;http://www.wikidata.org/entity/P1142&gt; &lt;http://www.wikidata.org/entity/Q3781399&gt; }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?date WHERE { &lt;http://www.wikidata.org/entity/Q162371&gt; &lt;http://www.wikidata.org/entity/P161&gt; ?actor . ?actor &lt;http://www.wikidata.org/entity/P569&gt; ?date . }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { wd:Q3235867 wdt:P50 ?person . ?person wdt:P135 ?uri }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://www.wikidata.org/entity/Q33999&gt; . { ?uri &lt;http://www.wikidata.org/entity/P19&gt; &lt;http://www.wikidata.org/entity/Q43287&gt; . } UNION { ?uri &lt;http://www.wikidata.org/entity/P19&gt; ?place . ?place &lt;http://www.wikidata.org/entity/P17&gt; &lt;http://www.wikidata.org/entity/Q43287&gt; . } }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?uri WHERE { wd:Q125006 wdt:P84 ?uri }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { wdt:Q23572 wdt:P86 ?uri }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P57 wd:Q56094. Directed by Francis Ford Coppola }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?bn WHERE { wd:Q23215 wdt:P1477 ?bn }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?album WHERE { ?album wdt:P175 wd:Q15862 ; wdt:P577 ?d . FILTER ( Lang(?d) = 'en') Assuming English release dates FILTER NOT EXISTS { ?earlierAlbum wdt:P175 wd:Q15862 ; wdt:P577 ?earlierDate . FILTER ( Lang(?earlierDate) = 'en') Assuming English release dates FILTER (?earlierDate &lt; ?d) } ORDER BY ASC(?d) OFFSET 0 LIMIT 1 }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?s ?p ?uri . ?s &lt;http://www.wikidata.org/entity/Q213&gt; ?p &lt;http://www.wikidata.org/entity/P38&gt; }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P19 wd:Q1741; wdt:P20 ?berlin. VALUES ?berlin { wd:Q64 wd:Q31910788 wd:Q56036 wd:Q56037 } }</t>
-  </si>
-  <si>
-    <t>SELECT ?uri WHERE { ?uri a &lt;http://www.wikidata.org/entity/Q12280&gt; ; &lt;http://www.wikidata.org/entity/P177&gt; &lt;http://www.wikidata.org/entity/Q1142326&gt; ; &lt;http://www.wikidata.org/entity/P177&gt; &lt;http://www.wikidata.org/entity/Q1471&gt; }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri &lt;http://www.wikidata.org/entity/P106&gt; &lt;http://www.wikidata.org/entity/Q639669&gt; . ?x &lt;http://www.wikidata.org/entity/P50&gt; ?uri . ?x &lt;http://www.wikidata.org/entity/P31&gt; &lt;http://www.wikidata.org/entity/Q571&gt; . } ORDER BY DESC(COUNT(?x)) OFFSET 0 LIMIT 1</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://www.wikidata.org/entity/Q15416&gt; ; &lt;http://www.wikidata.org/entity/P170&gt; &lt;http://www.wikidata.org/entity/Q25014&gt; . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://www.wikidata.org/entity/Q36180&gt; ; &lt;http://www.wikidata.org/entity/P166&gt; &lt;http://www.wikidata.org/entity/Q37922&gt; . }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?uri WHERE { wd:Q596 wdt:P61 ?uri }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri &lt;http://www.wikidata.org/entity/P106&gt; &lt;http://www.wikidata.org/entity/Q5280538&gt; ; &lt;http://www.wikidata.org/entity/P1303&gt; &lt;http://www.wikidata.org/entity/Q119621&gt; . UNION { ?uri &lt;http://www.wikidata.org/entity/P106&gt; &lt;http://www.wikidata.org/entity/Q5280538&gt; ; &lt;http://www.wikidata.org/entity/P1303&gt; &lt;http://www.wikidata.org/entity/Q8338&gt; . } UNION { ?uri &lt;http://www.wikidata.org/entity/P106&gt; &lt;http://www.wikidata.org/entity/Q806349&gt; ; &lt;http://www.wikidata.org/entity/P1303&gt; &lt;http://www.wikidata.org/entity/Q119621&gt; . } UNION { ?uri &lt;http://www.wikidata.org/entity/P106&gt; &lt;http://www.wikidata.org/entity/Q806349&gt; ; &lt;http://www.wikidata.org/entity/P1303&gt; &lt;http://www.wikidata.org/entity/Q8338&gt; . } }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://www.wikidata.org/entity/Q3665646&gt; ; &lt;http://www.wikidata.org/entity/P2048&gt; ?n . FILTER ( ?n &gt; 2.0 ) }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { { ?uri wdt:P31 wd:Q11424 ; wdt:P161 wd:Q40523 ; wdt:P161 wd:Q48410 . } UNION { ?uri wdt:P31 wd:Q11424 ; wdt:P161 wd:Q48410 ; wdt:P161 wd:Q40523 . } }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { wd:Q1020 wdt:P36 ?uri . wd:Q16 wdt:P36 ?uri . }</t>
-  </si>
-  <si>
-    <t>SELECT ?uri WHERE { ?uri a &lt;http://www.wikidata.org/entity/Q937857&gt; ; &lt;http://www.wikidata.org/entity/P19&gt; &lt;http://www.wikidata.org/entity/Q233&gt; }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { wd:Q1009 wdt:P36 ?uri }</t>
-  </si>
-  <si>
-    <t>SELECT (COUNT(DISTINCT ?uri) AS ?c) WHERE { ?uri a ?wikidata_id }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd/Q11631. { ?uri wdt:P27 wd/Q2184 } UNION { ?uri wdt:P27 wd/Q15180 } }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { wd:Q5930 wdt:P170 ?uri }</t>
-  </si>
-  <si>
-    <t>SELECT ?Mexico_City WHERE { wd:Q1489 wdt:P1082 ?Mexico_City . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { &lt;http://www.wikidata.org/entity/Q2695156&gt; &lt;http://www.wikidata.org/entity/P170&gt; ?uri }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?capital ?population WHERE { wd:Q3960 wdt:P36 ?capital . ?capital wdt:P1082 ?population . }</t>
-  </si>
-  <si>
-    <t>SELECT ?tarea WHERE { ?s &lt;http://www.wikidata.org/entity/P2046&gt; ?tarea . ?s &lt;http://www.wikidata.org/entity/Q1198&gt; . }</t>
-  </si>
-  <si>
-    <t>SELECT ?number WHERE { &lt;http://www.wikidata.org/entity/Q37156&gt; &lt;http://www.wikidata.org/entity/P1128&gt; ?number }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?n WHERE { wd:Q104123 wdt:P2769 ?n }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?movie WHERE { ?movie a &lt;http://www.wikidata.org/entity/Q11424&gt; ; &lt;http://www.wikidata.org/entity/P161&gt; &lt;http://www.wikidata.org/entity/Q219512&gt; }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q11424; wdt:P17 wd:Q5257925. UNION ?uri wdt:P31 wd:Q11424; wdt:P17 wd:Q35. }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?himalayas wdt:P17 ?uri }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q6256; wdt:P2046 ?n } ORDER BY DESC(?n) OFFSET 0 LIMIT 1</t>
-  </si>
-  <si>
-    <t>SELECT ?Almamater WHERE { wd:Q567 wdt:P69 ?Almamater . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { &lt;http://www.wikidata.org/entity/Q111135&gt; &lt;http://www.wikidata.org/entity/P170&gt; ?uri }</t>
-  </si>
-  <si>
     <t>SELECT ?o1 WHERE { &lt;http://www.wikidata.org/entity/Q1336200&gt;  &lt;http://www.wikidata.org/prop/direct/P112&gt;  ?o1 .  }</t>
   </si>
   <si>
@@ -1280,202 +980,1048 @@
   </si>
   <si>
     <t>None</t>
+  </si>
+  <si>
+    <t>Query Bad Formed</t>
+  </si>
+  <si>
+    <t>Missing P31</t>
+  </si>
+  <si>
+    <t>Wrong Property</t>
+  </si>
+  <si>
+    <t>Structural Error</t>
+  </si>
+  <si>
+    <t>Wrong Entity</t>
+  </si>
+  <si>
+    <t>Property treated as Entity</t>
+  </si>
+  <si>
+    <t>Entity treated as Property</t>
+  </si>
+  <si>
+    <t>Error Category 2</t>
+  </si>
+  <si>
+    <t>Error Category 3</t>
+  </si>
+  <si>
+    <t>Error Category 4</t>
+  </si>
+  <si>
+    <t>Unadapted Dataset Patterns</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?uri WHERE { wd:Q1336200 wdt:P112 ?uri . wd:Q3374730 wdt:P112 ?uri . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P57 wd:Q2001 }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri WHERE { ?uri rdf:type wd:Musical ; pr:P86 wd:Q2808 . }</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix rdf was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 34,\n        "query": "SELECT DISTINCT ?uri WHERE { ?uri rdf:type wd:Musical ; pr:P86 wd:Q2808 . }",\n        "startIndex": 34,\n        "stopIndex": 41\n    },\n    "query": "SELECT DISTINCT ?uri WHERE { ?uri rdf:type wd:Musical ; pr:P86 wd:Q2808 . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Prefix rdf was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 34,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nSELECT DISTINCT ?uri WHERE { ?uri rdf:type wd:Musical ; pr:P86 wd:Q2808 . }",\n        "startIndex": 332,\n        "stopIndex": 339\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nSELECT DISTINCT ?uri WHERE { ?uri rdf:type wd:Musical ; pr:P86 wd:Q2808 . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { wd:Q40984 wdt:P178 ?uri. }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://www.wikidata.org/entity/Q476028&gt; ; &lt;http://www.wikidata.org/entity/P118&gt; &lt;http://www.wikidata.org/entity/Q82595&gt; }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { ?x wdt:P57 wd:Q16297 ; wdt:P161 ?uri }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?item WHERE { ?item wdt:P2044 ?elevation . FILTER( ?elevation = (xsd:integer max(?elevation)) ) } ORDER BY DESC(?elevation) OFFSET 0 LIMIT 1</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"max\\": mismatched input \'max\' expecting \')\'",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 93,\n        "query": "SELECT DISTINCT ?item WHERE { ?item wdt:P2044 ?elevation . FILTER( ?elevation = (xsd:integer max(?elevation)) ) } ORDER BY DESC(?elevation) OFFSET 0 LIMIT 1",\n        "startIndex": 93,\n        "stopIndex": 95\n    },\n    "query": "SELECT DISTINCT ?item WHERE { ?item wdt:P2044 ?elevation . FILTER( ?elevation = (xsd:integer max(?elevation)) ) } ORDER BY DESC(?elevation) OFFSET 0 LIMIT 1",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\"max\\": mismatched input \'max\' expecting \')\'",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 93,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nSELECT DISTINCT ?item WHERE { ?item wdt:P2044 ?elevation . FILTER( ?elevation = (xsd:integer max(?elevation)) ) } ORDER BY DESC(?elevation) OFFSET 0 LIMIT 1",\n        "startIndex": 391,\n        "stopIndex": 393\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nSELECT DISTINCT ?item WHERE { ?item wdt:P2044 ?elevation . FILTER( ?elevation = (xsd:integer max(?elevation)) ) } ORDER BY DESC(?elevation) OFFSET 0 LIMIT 1",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wikidata: &lt;http://www.wikidata.org/entity/&gt; SELECT (COUNT(DISTINCT ?film) AS ?c) WHERE { ?film a wikidata:Q11424 ; wikidata:P161 wikidata:Q38111 . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?date WHERE { wd:Q53713 wdt:P570 ?date }</t>
+  </si>
+  <si>
+    <t>['1986-02-28T00:00:00Z']</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+`SELECT DISTINCT ?uri ` `WHERE { ?uri P161 wd:Q34851 ; P161 wd:Q151973 }`</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wd was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 30,\n        "query": "SELECT DISTINCT ?date WHERE { wd:Q53713 wdt:P570 ?date }",\n        "startIndex": 30,\n        "stopIndex": 38\n    },\n    "query": "SELECT DISTINCT ?date WHERE { wd:Q53713 wdt:P570 ?date }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: token recognition error at: \'`\'",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 0,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\n`SELECT DISTINCT ?uri ` `WHERE { ?uri P161 wd:Q34851 ; P161 wd:Q151973 }`",\n        "startIndex": 298,\n        "stopIndex": 298\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\n`SELECT DISTINCT ?uri ` `WHERE { ?uri P161 wd:Q34851 ; P161 wd:Q151973 }`",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri WHERE { &lt;http://www.wikidata.org/entity/Q49740&gt; &lt;http://www.wikidata.org/entity/P178&gt; ?uri }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?n WHERE { wd:Q2608065 wdt:P2769 ?n }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { ?x wdt:P31 wd:Q482994 ; wdt:P175 wd:Q303 ; wdt:P577 ?y ; wdt:P264 ?uri } ORDER BY ASC(?y) OFFSET 0 LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?runtime WHERE { wd:Q171048 wikidata:P2047 ?runtime . }</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: token recognition error at: \'`\'",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 0,\n        "query": "`SELECT DISTINCT ?uri ` `WHERE { ?uri P161 wd:Q34851 ; P161 wd:Q151973 }`",\n        "startIndex": 0,\n        "stopIndex": 0\n    },\n    "query": "`SELECT DISTINCT ?uri ` `WHERE { ?uri P161 wd:Q34851 ; P161 wd:Q151973 }`",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Prefix wikidata was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 44,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nSELECT DISTINCT ?runtime WHERE { wd:Q171048 wikidata:P2047 ?runtime . }",\n        "startIndex": 342,\n        "stopIndex": 355\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nSELECT DISTINCT ?runtime WHERE { wd:Q171048 wikidata:P2047 ?runtime . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P106 wd:Q5280538 ; wdt:P1303 wd:Q119621 }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?film WHERE { ?film a &lt;http://www.wikidata.org/entity/Q11424&gt;; &lt;http://www.wikidata.org/entity/P161&gt; &lt;http://www.wikidata.org/entity/Q40523&gt;; &lt;http://www.wikidata.org/entity/P57&gt; &lt;http://www.wikidata.org/entity/Q315087&gt; }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { wd:Q241665 wdt:P569 ?uri }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?cause (COUNT(DISTINCT ?entity) AS ?count) WHERE { ?entity a wd:Q5 . all entities ?entity wd:P509 ?cause . GROUP BY ?cause } ORDER BY DESC(?count) OFFSET 0 LIMIT 1</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wd was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 33,\n        "query": "SELECT DISTINCT ?runtime WHERE { wd:Q171048 wikidata:P2047 ?runtime . }",\n        "startIndex": 33,\n        "stopIndex": 42\n    },\n    "query": "SELECT DISTINCT ?runtime WHERE { wd:Q171048 wikidata:P2047 ?runtime . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\"all\\": mismatched input \'all\' expecting \'}\'",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 121,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?cause (COUNT(DISTINCT ?entity) AS ?count) WHERE { ?entity a wd:Q5 . all entities ?entity wd:P509 ?cause . GROUP BY ?cause } ORDER BY DESC(?count) OFFSET 0 LIMIT 1",\n        "startIndex": 419,\n        "stopIndex": 421\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?cause (COUNT(DISTINCT ?entity) AS ?count) WHERE { ?entity a wd:Q5 . all entities ?entity wd:P509 ?cause . GROUP BY ?cause } ORDER BY DESC(?count) OFFSET 0 LIMIT 1",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?num WHERE { wd:Q1207989 wdt:P2048 ?num }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wdt:Q8502 ; wdt:P131 wd:Q38 ; wdt:P2044 ?num } ORDER BY DESC(?num) OFFSET 0 LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri WHERE { wd:Q937 wdt:P184 ?uri }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?owner WHERE { ?owner wdt:P127 wd:Q22686. }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri WHERE { ?uri &lt;http://www.wikidata.org/entity/P26&gt; &lt;http://www.wikidata.org/entity/Q37079&gt; . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wkt: &lt;http://www.wikidata.org/ontology/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?population WHERE { wd:Q5401 wkt:P1082 ?population }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?Author WHERE { wd:Q726382 wdt:P50 ?Author }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?date WHERE { wd:Q11806 wdt:P569 ?date }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?europop WHERE { wd:Q458 wdt:P1082 ?europop . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?currency WHERE { ?china wdt:P31 wd:Q142. ?china wdt:P38 ?currency }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?x WHERE { wd:Q692 wdt:P570 ?x }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://www.wikidata.org/entity/Q41291&gt; ; &lt;http://www.wikidata.org/entity/P448&gt; &lt;http://www.wikidata.org/entity/Q177477&gt; . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q23442 ; wdt:P17 wd:Q17 }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri WHERE { wd:Q131007 wdt:P178 ?uri . ?uri wdt:P178 ?developer . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT (COUNT(DISTINCT ?uri) AS ?c) WHERE { ?uri a &lt;http://www.wikidata.org/entity/Q4830453&gt; . ?uri &lt;http://www.wikidata.org/entity/P452&gt; ?industry . FILTER regex(?industry, "advertising", "i") . UNION { ?uri &lt;http://www.wikidata.org/entity/P452&gt; &lt;http://www.wikidata.org/entity/Q854995&gt; . } UNION { ?uri &lt;http://www.wikidata.org/entity/P452&gt; &lt;http://www.wikidata.org/entity/Q37038&gt; . } UNION { ?uri &lt;http://www.wikidata.org/entity/P452&gt; &lt;http://www.wikidata.org/entity/Q1286627&gt; . } }</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"all\\": mismatched input \'all\' expecting \'}\'",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 121,\n        "query": "PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?cause (COUNT(DISTINCT ?entity) AS ?count) WHERE { ?entity a wd:Q5 . all entities ?entity wd:P509 ?cause . GROUP BY ?cause } ORDER BY DESC(?count) OFFSET 0 LIMIT 1",\n        "startIndex": 121,\n        "stopIndex": 123\n    },\n    "query": "PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?cause (COUNT(DISTINCT ?entity) AS ?count) WHERE { ?entity a wd:Q5 . all entities ?entity wd:P509 ?cause . GROUP BY ?cause } ORDER BY DESC(?count) OFFSET 0 LIMIT 1",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\"UNION\\": mismatched input \'UNION\' expecting \'}\'",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 196,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nSELECT (COUNT(DISTINCT ?uri) AS ?c) WHERE { ?uri a &lt;http://www.wikidata.org/entity/Q4830453&gt; . ?uri &lt;http://www.wikidata.org/entity/P452&gt; ?industry . FILTER regex(?industry, \\"advertising\\", \\"i\\") . UNION { ?uri &lt;http://www.wikidata.org/entity/P452&gt; &lt;http://www.wikidata.org/entity/Q854995&gt; . } UNION { ?uri &lt;http://www.wikidata.org/entity/P452&gt; &lt;http://www.wikidata.org/entity/Q37038&gt; . } UNION { ?uri &lt;http://www.wikidata.org/entity/P452&gt; &lt;http://www.wikidata.org/entity/Q1286627&gt; . } }",\n        "startIndex": 494,\n        "stopIndex": 498\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nSELECT (COUNT(DISTINCT ?uri) AS ?c) WHERE { ?uri a &lt;http://www.wikidata.org/entity/Q4830453&gt; . ?uri &lt;http://www.wikidata.org/entity/P452&gt; ?industry . FILTER regex(?industry, \\"advertising\\", \\"i\\") . UNION { ?uri &lt;http://www.wikidata.org/entity/P452&gt; &lt;http://www.wikidata.org/entity/Q854995&gt; . } UNION { ?uri &lt;http://www.wikidata.org/entity/P452&gt; &lt;http://www.wikidata.org/entity/Q37038&gt; . } UNION { ?uri &lt;http://www.wikidata.org/entity/P452&gt; &lt;http://www.wikidata.org/entity/Q1286627&gt; . } }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?university WHERE { wd:Q567 wdt:P69 ?university }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://www.wikidata.org/entity/Q15416&gt; ; &lt;http://www.wikidata.org/entity/P161&gt; &lt;http://www.wikidata.org/entity/Q485310&gt; }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://www.wikidata.org/entity/statement/Q11424&gt; ; &lt;http://www.wikidata.org/entity/P161&gt; &lt;http://www.wikidata.org/entity/Q37079&gt; . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { wd:Q513 wdt:P131 ?uri . ?uri wdt:P17 "Country" . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT ?uri WHERE { &lt;http://www.wikidata.org/entity/Q9696&gt; &lt;http://www.wikidata.org/entity/P20&gt; ?uri . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { wdt:Q125006 wdt:P177 ?uri }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://www.wikidata.org/entity/Q10843402&gt; ; &lt;http://www.wikidata.org/entity/P19&gt; &lt;http://www.wikidata.org/entity/Q649&gt; . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wdt:Q11424 ; wdt:P179 wdt:P161 :Alec_Guinness ; wdt:P577 ?date } ORDER BY DESC(?date) LIMIT 1</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wd was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 71,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?num WHERE { wd:Q1207989 wdt:P2048 ?num }",\n        "startIndex": 71,\n        "stopIndex": 81\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?num WHERE { wd:Q1207989 wdt:P2048 ?num }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\":Alec_Guinness\\": mismatched input \':Alec_Guinness\' expecting \'}\'",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 124,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nPREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wdt:Q11424 ; wdt:P179 wdt:P161 :Alec_Guinness ; wdt:P577 ?date } ORDER BY DESC(?date) LIMIT 1",\n        "startIndex": 422,\n        "stopIndex": 435\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nPREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wdt:Q11424 ; wdt:P179 wdt:P161 :Alec_Guinness ; wdt:P577 ?date } ORDER BY DESC(?date) LIMIT 1",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri WHERE { ?uri wdt:P2044 ?elevation . } ORDER BY DESC(?elevation) OFFSET 1 LIMIT 1</t>
+  </si>
+  <si>
+    <t>['http://www.wikidata.org/entity/Q81924287']</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wikibase: &lt;http://wikibase.org/ontology#&gt; SELECT ?pop WHERE { wdt:Q85 wdt:P1082 ?pop UNION wdt:Q20230483 wdt:P1082 ?pop }</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wd was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 29,\n        "query": "SELECT DISTINCT ?uri WHERE { wd:Q937 wdt:P184 ?uri }",\n        "startIndex": 29,\n        "stopIndex": 35\n    },\n    "query": "SELECT DISTINCT ?uri WHERE { wd:Q937 wdt:P184 ?uri }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\"UNION\\": mismatched input \'UNION\' expecting \'}\'",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 143,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nPREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wikibase: &lt;http://wikibase.org/ontology#&gt; SELECT ?pop WHERE { wdt:Q85 wdt:P1082 ?pop UNION wdt:Q20230483 wdt:P1082 ?pop }",\n        "startIndex": 441,\n        "stopIndex": 445\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nPREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wikibase: &lt;http://wikibase.org/ontology#&gt; SELECT ?pop WHERE { wdt:Q85 wdt:P1082 ?pop UNION wdt:Q20230483 wdt:P1082 ?pop }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q215627 ; wdt:P20 wd:Q160544. }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/property/&gt; SELECT (COUNT(DISTINCT ?child) AS ?c) WHERE { wd:Q34969 wdt:P40 ?child }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?ele WHERE { wd:Q58226 wdt:P2044 ?ele . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { wd:Q5806 wdt:P17 ?uri }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?height WHERE { wd:Q76717 wdt:P2048 ?height }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?uri WHERE { wd:Q1163227 wdt:P50 ?uri }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri WHERE { &lt;http://www.wikidata.org/entity/Q189080&gt; &lt;http://www.wikidata.org/prop/direct/P136&gt; ?uri }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?place WHERE { wikidata:Q40912 wdt:P19 ?place }</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 41,\n        "query": "SELECT DISTINCT ?currency WHERE { ?china wdt:P31 wd:Q142. ?china wdt:P38 ?currency }",\n        "startIndex": 41,\n        "stopIndex": 47\n    },\n    "query": "SELECT DISTINCT ?currency WHERE { ?china wdt:P31 wd:Q142. ?china wdt:P38 ?currency }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Prefix wikidata was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 82,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nPREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?place WHERE { wikidata:Q40912 wdt:P19 ?place }",\n        "startIndex": 380,\n        "stopIndex": 394\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nPREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?place WHERE { wikidata:Q40912 wdt:P19 ?place }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT ?uri WHERE { ?uri wdt:P31 wd:Q515 ; wdt:P1082 ?pop . } ORDER BY ASC(?pop) OFFSET 0 LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q15416. ?uri p:P170 wdt:Q8704. }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://www.wikidata.org/entity/Q1445650&gt; ; &lt;http://www.wikidata.org/entity/P17&gt; &lt;http://www.wikidata.org/entity/Q34&gt; . UNION ?uri a &lt;http://www.wikidata.org/entity/Q1445650&gt; ; &lt;http://www.wikidata.org/entity/P17&gt; &lt;http://www.wikidata.org/entity/Q272930&gt; . }</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 34,\n        "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q23442 ; wdt:P17 wd:Q17 }",\n        "startIndex": 34,\n        "stopIndex": 40\n    },\n    "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q23442 ; wdt:P17 wd:Q17 }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\"UNION\\": mismatched input \'UNION\' expecting \'}\'",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 156,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nSELECT DISTINCT ?uri WHERE { ?uri a &lt;http://www.wikidata.org/entity/Q1445650&gt; ; &lt;http://www.wikidata.org/entity/P17&gt; &lt;http://www.wikidata.org/entity/Q34&gt; . UNION ?uri a &lt;http://www.wikidata.org/entity/Q1445650&gt; ; &lt;http://www.wikidata.org/entity/P17&gt; &lt;http://www.wikidata.org/entity/Q272930&gt; . }",\n        "startIndex": 454,\n        "stopIndex": 458\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nSELECT DISTINCT ?uri WHERE { ?uri a &lt;http://www.wikidata.org/entity/Q1445650&gt; ; &lt;http://www.wikidata.org/entity/P17&gt; &lt;http://www.wikidata.org/entity/Q34&gt; . UNION ?uri a &lt;http://www.wikidata.org/entity/Q1445650&gt; ; &lt;http://www.wikidata.org/entity/P17&gt; &lt;http://www.wikidata.org/entity/Q272930&gt; . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 0\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?ni WHERE { &lt;http://www.wikidata.org/entity/Q312&gt; &lt;http://www.wikidata.org/entity/P2295&gt; ?ni . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { wdt:Q91 wdt:P20 ?uri. }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri WHERE { &lt;http://www.wikidata.org/entity/Q105981852&gt; &lt;http://www.wikidata.org/prop/direct/P17&gt; ?country . ?country &lt;http://www.wikidata.org/prop/direct/P36&gt; ?uri . UNION &lt;http://www.wikidata.org/entity/Q26235529&gt; &lt;http://www.wikidata.org/prop/direct/P17&gt; ?country . ?country &lt;http://www.wikidata.org/prop/direct/P36&gt; ?uri . UNION &lt;http://www.wikidata.org/entity/Q5451&gt; &lt;http://www.wikidata.org/prop/direct/P17&gt; ?country . ?country &lt;http://www.wikidata.org/prop/direct/P36&gt; ?uri . }</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wd was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 29,\n        "query": "SELECT DISTINCT ?uri WHERE { wd:Q131007 wdt:P178 ?uri . ?uri wdt:P178 ?developer . }",\n        "startIndex": 29,\n        "stopIndex": 38\n    },\n    "query": "SELECT DISTINCT ?uri WHERE { wd:Q131007 wdt:P178 ?uri . ?uri wdt:P178 ?developer . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\"UNION\\": mismatched input \'UNION\' expecting \'}\'",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 184,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nSELECT DISTINCT ?uri WHERE { &lt;http://www.wikidata.org/entity/Q105981852&gt; &lt;http://www.wikidata.org/prop/direct/P17&gt; ?country . ?country &lt;http://www.wikidata.org/prop/direct/P36&gt; ?uri . UNION &lt;http://www.wikidata.org/entity/Q26235529&gt; &lt;http://www.wikidata.org/prop/direct/P17&gt; ?country . ?country &lt;http://www.wikidata.org/prop/direct/P36&gt; ?uri . UNION &lt;http://www.wikidata.org/entity/Q5451&gt; &lt;http://www.wikidata.org/prop/direct/P17&gt; ?country . ?country &lt;http://www.wikidata.org/prop/direct/P36&gt; ?uri . }",\n        "startIndex": 482,\n        "stopIndex": 486\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nSELECT DISTINCT ?uri WHERE { &lt;http://www.wikidata.org/entity/Q105981852&gt; &lt;http://www.wikidata.org/prop/direct/P17&gt; ?country . ?country &lt;http://www.wikidata.org/prop/direct/P36&gt; ?uri . UNION &lt;http://www.wikidata.org/entity/Q26235529&gt; &lt;http://www.wikidata.org/prop/direct/P17&gt; ?country . ?country &lt;http://www.wikidata.org/prop/direct/P36&gt; ?uri . UNION &lt;http://www.wikidata.org/entity/Q5451&gt; &lt;http://www.wikidata.org/prop/direct/P17&gt; ?country . ?country &lt;http://www.wikidata.org/prop/direct/P36&gt; ?uri . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { wd:Q6386177 wdt:P17 ?uri }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/&gt; SELECT DISTINCT ?num WHERE { wd:Q41421 wdt:P2048 ?num }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wikidata: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { ?uri wikidata:P57 wikidata:Q43203 ; wikidata:P161 wikidata:Q43203 }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri WHERE { ?uri &lt;http://www.wikidata.org/entity/P38&gt; &lt;http://www.wikidata.org/entity/Q861690&gt; }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?pIraq WHERE { wd:Q796 wd:P1082 ?pIraq }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wdt:Q1445650 . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://www.wikidata.org/entity/Q7278&gt; ; &lt;http://www.wikidata.org/entity/P17&gt; &lt;http://www.wikidata.org/entity/Q41&gt; ; &lt;http://www.wikidata.org/entity/P1142&gt; &lt;http://www.wikidata.org/entity/Q3781399&gt; }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?date WHERE { &lt;http://www.wikidata.org/entity/Q162371&gt; &lt;http://www.wikidata.org/entity/P161&gt; ?actor . ?actor &lt;http://www.wikidata.org/entity/P569&gt; ?date . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { wd:Q3235867 wdt:P50 ?person . ?person wdt:P135 ?uri }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://www.wikidata.org/entity/Q33999&gt; . { ?uri &lt;http://www.wikidata.org/entity/P19&gt; &lt;http://www.wikidata.org/entity/Q43287&gt; . } UNION { ?uri &lt;http://www.wikidata.org/entity/P19&gt; ?place . ?place &lt;http://www.wikidata.org/entity/P17&gt; &lt;http://www.wikidata.org/entity/Q43287&gt; . } }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?uri WHERE { wd:Q125006 wdt:P84 ?uri }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { wdt:Q23572 wdt:P86 ?uri }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P57 wd:Q56094. Directed by Francis Ford Coppola }</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"UNION\\": mismatched input \'UNION\' expecting \'}\'",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 196,\n        "query": "SELECT (COUNT(DISTINCT ?uri) AS ?c) WHERE { ?uri a &lt;http://www.wikidata.org/entity/Q4830453&gt; . ?uri &lt;http://www.wikidata.org/entity/P452&gt; ?industry . FILTER regex(?industry, \\"advertising\\", \\"i\\") . UNION { ?uri &lt;http://www.wikidata.org/entity/P452&gt; &lt;http://www.wikidata.org/entity/Q854995&gt; . } UNION { ?uri &lt;http://www.wikidata.org/entity/P452&gt; &lt;http://www.wikidata.org/entity/Q37038&gt; . } UNION { ?uri &lt;http://www.wikidata.org/entity/P452&gt; &lt;http://www.wikidata.org/entity/Q1286627&gt; . } }",\n        "startIndex": 196,\n        "stopIndex": 200\n    },\n    "query": "SELECT (COUNT(DISTINCT ?uri) AS ?c) WHERE { ?uri a &lt;http://www.wikidata.org/entity/Q4830453&gt; . ?uri &lt;http://www.wikidata.org/entity/P452&gt; ?industry . FILTER regex(?industry, \\"advertising\\", \\"i\\") . UNION { ?uri &lt;http://www.wikidata.org/entity/P452&gt; &lt;http://www.wikidata.org/entity/Q854995&gt; . } UNION { ?uri &lt;http://www.wikidata.org/entity/P452&gt; &lt;http://www.wikidata.org/entity/Q37038&gt; . } UNION { ?uri &lt;http://www.wikidata.org/entity/P452&gt; &lt;http://www.wikidata.org/entity/Q1286627&gt; . } }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\"Directed\\": mismatched input \'Directed\' expecting \'}\'",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 149,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nPREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P57 wd:Q56094. Directed by Francis Ford Coppola }",\n        "startIndex": 447,\n        "stopIndex": 454\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nPREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P57 wd:Q56094. Directed by Francis Ford Coppola }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?bn WHERE { wd:Q23215 wdt:P1477 ?bn }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?album WHERE { ?album wdt:P175 wd:Q15862 ; wdt:P577 ?d . FILTER ( Lang(?d) = 'en') Assuming English release dates FILTER NOT EXISTS { ?earlierAlbum wdt:P175 wd:Q15862 ; wdt:P577 ?earlierDate . FILTER ( Lang(?earlierDate) = 'en') Assuming English release dates FILTER (?earlierDate &lt; ?d) } ORDER BY ASC(?d) OFFSET 0 LIMIT 1 }</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\":Alec_Guinness\\": mismatched input \':Alec_Guinness\' expecting \'}\'",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 124,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wdt:Q11424 ; wdt:P179 wdt:P161 :Alec_Guinness ; wdt:P577 ?date } ORDER BY DESC(?date) LIMIT 1",\n        "startIndex": 124,\n        "stopIndex": 137\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wdt:Q11424 ; wdt:P179 wdt:P161 :Alec_Guinness ; wdt:P577 ?date } ORDER BY DESC(?date) LIMIT 1",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\"Assuming\\": mismatched input \'Assuming\' expecting \'}\'",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 195,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?album WHERE { ?album wdt:P175 wd:Q15862 ; wdt:P577 ?d . FILTER ( Lang(?d) = \'en\') Assuming English release dates FILTER NOT EXISTS { ?earlierAlbum wdt:P175 wd:Q15862 ; wdt:P577 ?earlierDate . FILTER ( Lang(?earlierDate) = \'en\') Assuming English release dates FILTER (?earlierDate &lt; ?d) } ORDER BY ASC(?d) OFFSET 0 LIMIT 1 }",\n        "startIndex": 493,\n        "stopIndex": 500\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?album WHERE { ?album wdt:P175 wd:Q15862 ; wdt:P577 ?d . FILTER ( Lang(?d) = \'en\') Assuming English release dates FILTER NOT EXISTS { ?earlierAlbum wdt:P175 wd:Q15862 ; wdt:P577 ?earlierDate . FILTER ( Lang(?earlierDate) = \'en\') Assuming English release dates FILTER (?earlierDate &lt; ?d) } ORDER BY ASC(?d) OFFSET 0 LIMIT 1 }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri WHERE { ?s ?p ?uri . ?s &lt;http://www.wikidata.org/entity/Q213&gt; ?p &lt;http://www.wikidata.org/entity/P38&gt; }</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 34,\n        "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P2044 ?elevation . } ORDER BY DESC(?elevation) OFFSET 1 LIMIT 1",\n        "startIndex": 34,\n        "stopIndex": 42\n    },\n    "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P2044 ?elevation . } ORDER BY DESC(?elevation) OFFSET 1 LIMIT 1",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\"&lt;http://www.wikidata.org/entity/P38&gt;\\": extraneous input \'&lt;http://www.wikidata.org/entity/P38&gt;\' expecting \'}\'",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 86,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nSELECT DISTINCT ?uri WHERE { ?s ?p ?uri . ?s &lt;http://www.wikidata.org/entity/Q213&gt; ?p &lt;http://www.wikidata.org/entity/P38&gt; }",\n        "startIndex": 384,\n        "stopIndex": 419\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nSELECT DISTINCT ?uri WHERE { ?s ?p ?uri . ?s &lt;http://www.wikidata.org/entity/Q213&gt; ?p &lt;http://www.wikidata.org/entity/P38&gt; }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P19 wd:Q1741; wdt:P20 ?berlin. VALUES ?berlin { wd:Q64 wd:Q31910788 wd:Q56036 wd:Q56037 } }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT ?uri WHERE { ?uri a &lt;http://www.wikidata.org/entity/Q12280&gt; ; &lt;http://www.wikidata.org/entity/P177&gt; &lt;http://www.wikidata.org/entity/Q1142326&gt; ; &lt;http://www.wikidata.org/entity/P177&gt; &lt;http://www.wikidata.org/entity/Q1471&gt; }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri WHERE { ?uri &lt;http://www.wikidata.org/entity/P106&gt; &lt;http://www.wikidata.org/entity/Q639669&gt; . ?x &lt;http://www.wikidata.org/entity/P50&gt; ?uri . ?x &lt;http://www.wikidata.org/entity/P31&gt; &lt;http://www.wikidata.org/entity/Q571&gt; . } ORDER BY DESC(COUNT(?x)) OFFSET 0 LIMIT 1</t>
+  </si>
+  <si>
+    <t>EndPointInternalError: The endpoint returned the HTTP status code 500. 
+Response:
+b'{\n    "exception": "Assertion `it != inputs.end()` failed. Please report this to the developers. In file \\"/app/src/engine/sparqlExpressions/AggregateExpression.h \\" at line 128",\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nSELECT DISTINCT ?uri WHERE { ?uri &lt;http://www.wikidata.org/entity/P106&gt; &lt;http://www.wikidata.org/entity/Q639669&gt; . ?x &lt;http://www.wikidata.org/entity/P50&gt; ?uri . ?x &lt;http://www.wikidata.org/entity/P31&gt; &lt;http://www.wikidata.org/entity/Q571&gt; . } ORDER BY DESC(COUNT(?x)) OFFSET 0 LIMIT 1",\n    "resultsize": 0,\n    "runtimeInformation": {\n        "cache_status": "computed",\n        "children": [\n            {\n                "cache_status": "computed",\n                "children": [\n                    {\n                        "cache_status": "computed",\n                        "children": [\n                            {\n                                "cache_status": "computed",\n                                "children": [\n                                    {\n                                        "cache_status": "computed",\n                                        "children": [\n                                            {\n                                                "cache_status": "computed",\n                                                "children": [\n                                                    {\n                                                        "cache_status": "computed",\n                                                        "children": [],\n                                                        "column_names": [\n                                                            "?x"\n                                                        ],\n                                                        "description": "IndexScan ?x &lt;http://www.wikidata.org/entity/P31&gt; &lt;http://www.wikidata.org/entity/Q571&gt;",\n                                                        "details": null,\n                                                        "estimated_column_multiplicities": [\n                                                            1.0\n                                                        ],\n                                                        "estimated_operation_cost": 0,\n                                                        "estimated_size": 0,\n                                                        "estimated_total_cost": 0,\n                                                        "operation_time": 0,\n                                                        "original_operation_time": 0,\n                                                        "original_total_time": 0,\n                                                        "result_cols": 1,\n                                                        "result_rows": 0,\n                                                        "status": "optimized out",\n                                                        "total_time": 0\n                                                    },\n                                                    {\n                                                        "cache_status": "computed",\n                                                        "children": [],\n                                                        "column_names": [\n                                                            "?x",\n                                                            "?uri"\n                                                        ],\n                                                        "description": "IndexScan ?x &lt;http://www.wikidata.org/entity/P50&gt; ?uri",\n                                                        "details": null,\n                                                        "estimated_column_multiplicities": [\n                                                            1.0,\n                                                            1.0\n                                                        ],\n                                                        "estimated_operation_cost": 0,\n                                                        "estimated_size": 0,\n                                                        "estimated_total_cost": 0,\n                                                        "operation_time": 0,\n                                                        "original_operation_time": 0,\n                                                        "original_total_time": 0,\n                                                        "result_cols": 2,\n                                                        "result_rows": 0,\n                                                        "status": "optimized out",\n                                                        "total_time": 0\n                                                    }\n                                                ],\n                                                "column_names": [\n                                                    "?x",\n                                                    "?uri"\n                                                ],\n                                                "description": "Join on ?x",\n                                                "details": null,\n                                                "estimated_column_multiplicities": [\n                                                    1.0,\n                                                    1.0\n                                                ],\n                                                "estimated_operation_cost": 0,\n                                                "estimated_size": 0,\n                                                "estimated_total_cost": 0,\n                                                "operation_time": 0,\n                                                "original_operation_time": 0,\n                                                "original_total_time": 0,\n                                                "result_cols": 2,\n                                                "result_rows": 0,\n                                                "status": "optimized out",\n                                                "total_time": 0\n                                            }\n                                        ],\n                                        "column_names": [\n                                            "?x",\n                                            "?uri"\n                                        ],\n                                        "description": "Sort (internal order) on ?uri",\n                                        "details": null,\n                                        "estimated_column_multiplicities": [\n                                            1.0,\n                                            1.0\n                                        ],\n                                        "estimated_operation_cost": 1,\n                                        "estimated_size": 0,\n                                        "estimated_total_cost": 1,\n                                        "operation_time": 0,\n                                        "original_operation_time": 0,\n                                        "original_total_time": 0,\n                                        "result_cols": 2,\n                                        "result_rows": 0,\n                                        "status": "optimized out",\n                                        "total_time": 0\n                                    },\n                                    {\n                                        "cache_status": "computed",\n                                        "children": [],\n                                        "column_names": [\n                                            "?uri"\n                                        ],\n                                        "description": "IndexScan ?uri &lt;http://www.wikidata.org/entity/P106&gt; &lt;http://www.wikidata.org/entity/Q639669&gt;",\n                                        "details": null,\n                                        "estimated_column_multiplicities": [\n                                            1.0\n                                        ],\n                                        "estimated_operation_cost": 0,\n                                        "estimated_size": 0,\n                                        "estimated_total_cost": 0,\n                                        "operation_time": 0,\n                                        "original_operation_time": 0,\n                                        "original_total_time": 0,\n                                        "result_cols": 1,\n                                        "result_rows": 0,\n                                        "status": "optimized out",\n                                        "total_time": 0\n                                    }\n                                ],\n                                "column_names": [\n                                    "?x",\n                                    "?uri"\n                                ],\n                                "description": "Join on ?uri",\n                                "details": null,\n                                "estimated_column_multiplicities": [\n                                    1.0,\n                                    1.0\n                                ],\n                                "estimated_operation_cost": 0,\n                                "estimated_size": 0,\n                                "estimated_total_cost": 1,\n                                "operation_time": 0,\n                                "original_operation_time": 0,\n                                "original_total_time": 0,\n                                "result_cols": 2,\n                                "result_rows": 0,\n                                "status": "fully materialized",\n                                "total_time": 0\n                            }\n                        ],\n                        "column_names": [\n                            "?x",\n                            "?uri",\n                            "?_QLever_internal_variable_0 (U)"\n                        ],\n                        "description": "BIND ((COUNT(?x)) AS ?_QLever_internal_variable_0)",\n                        "details": null,\n                        "estimated_column_multiplicities": [\n                            1.0,\n                            1.0,\n                            1.0\n                        ],\n                        "estimated_operation_cost": 0,\n                        "estimated_size": 0,\n                        "estimated_total_cost": 1,\n                        "operation_time": 0,\n                        "original_operation_time": 0,\n                        "original_total_time": 0,\n                        "result_cols": 3,\n                        "result_rows": 0,\n                        "status": "failed",\n                        "total_time": 0\n                    }\n                ],\n                "column_names": [\n                    "?x",\n                    "?uri",\n                    "?_QLever_internal_variable_0 (U)"\n                ],\n                "description": "Distinct",\n                "details": null,\n                "estimated_column_multiplicities": [\n                    1.0,\n                    1.0,\n                    1.0\n                ],\n                "estimated_operation_cost": 0,\n                "estimated_size": 0,\n                "estimated_total_cost": 1,\n                "operation_time": 1,\n                "original_operation_time": 0,\n                "original_total_time": 0,\n                "result_cols": 3,\n                "result_rows": 0,\n                "status": "failed because child failed",\n                "total_time": 1\n            }\n        ],\n        "column_names": [\n            "?x",\n            "?uri",\n            "?_QLever_internal_variable_0 (U)"\n        ],\n        "description": "OrderBy on DESC(?_QLever_internal_variable_0)",\n        "details": null,\n        "estimated_column_multiplicities": [\n            1.0,\n            1.0,\n            1.0\n        ],\n        "estimated_operation_cost": 0,\n        "estimated_size": 0,\n        "estimated_total_cost": 1,\n        "operation_time": 1,\n        "original_operation_time": 0,\n        "original_total_time": 0,\n        "result_cols": 3,\n        "result_rows": 0,\n        "status": "failed because child failed",\n        "total_time": 2\n    },\n    "status": "ERROR",\n    "time": {\n        "computeResult": 3,\n        "total": 3\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://www.wikidata.org/entity/Q15416&gt; ; &lt;http://www.wikidata.org/entity/P170&gt; &lt;http://www.wikidata.org/entity/Q25014&gt; . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://www.wikidata.org/entity/Q36180&gt; ; &lt;http://www.wikidata.org/entity/P166&gt; &lt;http://www.wikidata.org/entity/Q37922&gt; . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?uri WHERE { wd:Q596 wdt:P61 ?uri }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri WHERE { ?uri &lt;http://www.wikidata.org/entity/P106&gt; &lt;http://www.wikidata.org/entity/Q5280538&gt; ; &lt;http://www.wikidata.org/entity/P1303&gt; &lt;http://www.wikidata.org/entity/Q119621&gt; . UNION { ?uri &lt;http://www.wikidata.org/entity/P106&gt; &lt;http://www.wikidata.org/entity/Q5280538&gt; ; &lt;http://www.wikidata.org/entity/P1303&gt; &lt;http://www.wikidata.org/entity/Q8338&gt; . } UNION { ?uri &lt;http://www.wikidata.org/entity/P106&gt; &lt;http://www.wikidata.org/entity/Q806349&gt; ; &lt;http://www.wikidata.org/entity/P1303&gt; &lt;http://www.wikidata.org/entity/Q119621&gt; . } UNION { ?uri &lt;http://www.wikidata.org/entity/P106&gt; &lt;http://www.wikidata.org/entity/Q806349&gt; ; &lt;http://www.wikidata.org/entity/P1303&gt; &lt;http://www.wikidata.org/entity/Q8338&gt; . } }</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"UNION\\": mismatched input \'UNION\' expecting \'}\'",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 143,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wikibase: &lt;http://wikibase.org/ontology#&gt; SELECT ?pop WHERE { wdt:Q85 wdt:P1082 ?pop UNION wdt:Q20230483 wdt:P1082 ?pop }",\n        "startIndex": 143,\n        "stopIndex": 147\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wikibase: &lt;http://wikibase.org/ontology#&gt; SELECT ?pop WHERE { wdt:Q85 wdt:P1082 ?pop UNION wdt:Q20230483 wdt:P1082 ?pop }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\"UNION\\": mismatched input \'UNION\' expecting \'}\'",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 198,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nSELECT DISTINCT ?uri WHERE { ?uri &lt;http://www.wikidata.org/entity/P106&gt; &lt;http://www.wikidata.org/entity/Q5280538&gt; ; &lt;http://www.wikidata.org/entity/P1303&gt; &lt;http://www.wikidata.org/entity/Q119621&gt; . UNION { ?uri &lt;http://www.wikidata.org/entity/P106&gt; &lt;http://www.wikidata.org/entity/Q5280538&gt; ; &lt;http://www.wikidata.org/entity/P1303&gt; &lt;http://www.wikidata.org/entity/Q8338&gt; . } UNION { ?uri &lt;http://www.wikidata.org/entity/P106&gt; &lt;http://www.wikidata.org/entity/Q806349&gt; ; &lt;http://www.wikidata.org/entity/P1303&gt; &lt;http://www.wikidata.org/entity/Q119621&gt; . } UNION { ?uri &lt;http://www.wikidata.org/entity/P106&gt; &lt;http://www.wikidata.org/entity/Q806349&gt; ; &lt;http://www.wikidata.org/entity/P1303&gt; &lt;http://www.wikidata.org/entity/Q8338&gt; . } }",\n        "startIndex": 496,\n        "stopIndex": 500\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nSELECT DISTINCT ?uri WHERE { ?uri &lt;http://www.wikidata.org/entity/P106&gt; &lt;http://www.wikidata.org/entity/Q5280538&gt; ; &lt;http://www.wikidata.org/entity/P1303&gt; &lt;http://www.wikidata.org/entity/Q119621&gt; . UNION { ?uri &lt;http://www.wikidata.org/entity/P106&gt; &lt;http://www.wikidata.org/entity/Q5280538&gt; ; &lt;http://www.wikidata.org/entity/P1303&gt; &lt;http://www.wikidata.org/entity/Q8338&gt; . } UNION { ?uri &lt;http://www.wikidata.org/entity/P106&gt; &lt;http://www.wikidata.org/entity/Q806349&gt; ; &lt;http://www.wikidata.org/entity/P1303&gt; &lt;http://www.wikidata.org/entity/Q119621&gt; . } UNION { ?uri &lt;http://www.wikidata.org/entity/P106&gt; &lt;http://www.wikidata.org/entity/Q806349&gt; ; &lt;http://www.wikidata.org/entity/P1303&gt; &lt;http://www.wikidata.org/entity/Q8338&gt; . } }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://www.wikidata.org/entity/Q3665646&gt; ; &lt;http://www.wikidata.org/entity/P2048&gt; ?n . FILTER ( ?n &gt; 2.0 ) }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { { ?uri wdt:P31 wd:Q11424 ; wdt:P161 wd:Q40523 ; wdt:P161 wd:Q48410 . } UNION { ?uri wdt:P31 wd:Q11424 ; wdt:P161 wd:Q48410 ; wdt:P161 wd:Q40523 . } }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { wd:Q1020 wdt:P36 ?uri . wd:Q16 wdt:P36 ?uri . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT ?uri WHERE { ?uri a &lt;http://www.wikidata.org/entity/Q937857&gt; ; &lt;http://www.wikidata.org/entity/P19&gt; &lt;http://www.wikidata.org/entity/Q233&gt; }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri WHERE { wd:Q1009 wdt:P36 ?uri }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT (COUNT(DISTINCT ?uri) AS ?c) WHERE { ?uri a ?wikidata_id }</t>
+  </si>
+  <si>
+    <t>EndPointInternalError: The endpoint returned the HTTP status code 500. 
+Response:
+b'{\n    "exception": "Tried to allocate 30.1 GB, but only 19.9 GB were available. Clear the cache or allow more memory for QLever during startup",\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nSELECT (COUNT(DISTINCT ?uri) AS ?c) WHERE { ?uri a ?wikidata_id }",\n    "resultsize": 0,\n    "runtimeInformation": {\n        "cache_status": "computed",\n        "children": [\n            {\n                "cache_status": "computed",\n                "children": [],\n                "column_names": [\n                    "?uri",\n                    "?wikidata_id"\n                ],\n                "description": "IndexScan ?uri &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#type&gt; ?wikidata_id",\n                "details": null,\n                "estimated_column_multiplicities": [\n                    1.743576169013977,\n                    2169983.25\n                ],\n                "estimated_operation_cost": 3760581155,\n                "estimated_size": 3760581155,\n                "estimated_total_cost": 3760581155,\n                "operation_time": 56,\n                "original_operation_time": 0,\n                "original_total_time": 0,\n                "result_cols": 2,\n                "result_rows": 0,\n                "status": "failed",\n                "total_time": 56\n            }\n        ],\n        "column_names": [\n            "?c (U)"\n        ],\n        "description": "GroupBy (implicit)",\n        "details": null,\n        "estimated_column_multiplicities": [\n            1.0\n        ],\n        "estimated_operation_cost": 0,\n        "estimated_size": 1,\n        "estimated_total_cost": 3760581155,\n        "operation_time": 0,\n        "original_operation_time": 0,\n        "original_total_time": 0,\n        "result_cols": 1,\n        "result_rows": 0,\n        "status": "failed because child failed",\n        "total_time": 56\n    },\n    "status": "ERROR",\n    "time": {\n        "computeResult": 57,\n        "total": 57\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd/Q11631. { ?uri wdt:P27 wd/Q2184 } UNION { ?uri wdt:P27 wd/Q15180 } }</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wd was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 71,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?ele WHERE { wd:Q58226 wdt:P2044 ?ele . }",\n        "startIndex": 71,\n        "stopIndex": 79\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?ele WHERE { wd:Q58226 wdt:P2044 ?ele . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\"wd\\": mismatched input \'wd\' expecting {\'(\', \'[\', \'true\', \'false\', IRI_REF, PNAME_NS, PNAME_LN, BLANK_NODE_LABEL, VAR1, VAR2, PREFIX_LANGTAG, INTEGER, DECIMAL, DOUBLE, INTEGER_POSITIVE, DECIMAL_POSITIVE, DOUBLE_POSITIVE, INTEGER_NEGATIVE, DECIMAL_NEGATIVE, DOUBLE_NEGATIVE, STRING_LITERAL1, STRING_LITERAL2, STRING_LITERAL_LONG1, STRING_LITERAL_LONG2, NIL, ANON}",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 42,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nSELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd/Q11631. { ?uri wdt:P27 wd/Q2184 } UNION { ?uri wdt:P27 wd/Q15180 } }",\n        "startIndex": 340,\n        "stopIndex": 341\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nSELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd/Q11631. { ?uri wdt:P27 wd/Q2184 } UNION { ?uri wdt:P27 wd/Q15180 } }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { wd:Q5930 wdt:P170 ?uri }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT ?Mexico_City WHERE { wd:Q1489 wdt:P1082 ?Mexico_City . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri WHERE { &lt;http://www.wikidata.org/entity/Q2695156&gt; &lt;http://www.wikidata.org/entity/P170&gt; ?uri }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT ?capital ?population WHERE { wd:Q3960 wdt:P36 ?capital . ?capital wdt:P1082 ?population . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT ?tarea WHERE { ?s &lt;http://www.wikidata.org/entity/P2046&gt; ?tarea . ?s &lt;http://www.wikidata.org/entity/Q1198&gt; . }</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wikidata was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 82,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?place WHERE { wikidata:Q40912 wdt:P19 ?place }",\n        "startIndex": 82,\n        "stopIndex": 96\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?place WHERE { wikidata:Q40912 wdt:P19 ?place }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\".\\": mismatched input \'.\' expecting {\'(\', \'[\', \'true\', \'false\', IRI_REF, PNAME_NS, PNAME_LN, BLANK_NODE_LABEL, VAR1, VAR2, PREFIX_LANGTAG, INTEGER, DECIMAL, DOUBLE, INTEGER_POSITIVE, DECIMAL_POSITIVE, DOUBLE_POSITIVE, INTEGER_NEGATIVE, DECIMAL_NEGATIVE, DOUBLE_NEGATIVE, STRING_LITERAL1, STRING_LITERAL2, STRING_LITERAL_LONG1, STRING_LITERAL_LONG2, NIL, ANON}",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 115,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nSELECT ?tarea WHERE { ?s &lt;http://www.wikidata.org/entity/P2046&gt; ?tarea . ?s &lt;http://www.wikidata.org/entity/Q1198&gt; . }",\n        "startIndex": 413,\n        "stopIndex": 413\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nSELECT ?tarea WHERE { ?s &lt;http://www.wikidata.org/entity/P2046&gt; ?tarea . ?s &lt;http://www.wikidata.org/entity/Q1198&gt; . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT ?number WHERE { &lt;http://www.wikidata.org/entity/Q37156&gt; &lt;http://www.wikidata.org/entity/P1128&gt; ?number }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?n WHERE { wd:Q104123 wdt:P2769 ?n }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?movie WHERE { ?movie a &lt;http://www.wikidata.org/entity/Q11424&gt; ; &lt;http://www.wikidata.org/entity/P161&gt; &lt;http://www.wikidata.org/entity/Q219512&gt; }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q11424; wdt:P17 wd:Q5257925. UNION ?uri wdt:P31 wd:Q11424; wdt:P17 wd:Q35. }</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 25,\n        "query": "SELECT ?uri WHERE { ?uri wdt:P31 wd:Q515 ; wdt:P1082 ?pop . } ORDER BY ASC(?pop) OFFSET 0 LIMIT 1",\n        "startIndex": 25,\n        "stopIndex": 31\n    },\n    "query": "SELECT ?uri WHERE { ?uri wdt:P31 wd:Q515 ; wdt:P1082 ?pop . } ORDER BY ASC(?pop) OFFSET 0 LIMIT 1",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 34,\n        "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q15416. ?uri p:P170 wdt:Q8704. }",\n        "startIndex": 34,\n        "stopIndex": 40\n    },\n    "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q15416. ?uri p:P170 wdt:Q8704. }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"UNION\\": mismatched input \'UNION\' expecting \'}\'",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 156,\n        "query": "SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://www.wikidata.org/entity/Q1445650&gt; ; &lt;http://www.wikidata.org/entity/P17&gt; &lt;http://www.wikidata.org/entity/Q34&gt; . UNION ?uri a &lt;http://www.wikidata.org/entity/Q1445650&gt; ; &lt;http://www.wikidata.org/entity/P17&gt; &lt;http://www.wikidata.org/entity/Q272930&gt; . }",\n        "startIndex": 156,\n        "stopIndex": 160\n    },\n    "query": "SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://www.wikidata.org/entity/Q1445650&gt; ; &lt;http://www.wikidata.org/entity/P17&gt; &lt;http://www.wikidata.org/entity/Q34&gt; . UNION ?uri a &lt;http://www.wikidata.org/entity/Q1445650&gt; ; &lt;http://www.wikidata.org/entity/P17&gt; &lt;http://www.wikidata.org/entity/Q272930&gt; . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"UNION\\": mismatched input \'UNION\' expecting \'}\'",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 184,\n        "query": "SELECT DISTINCT ?uri WHERE { &lt;http://www.wikidata.org/entity/Q105981852&gt; &lt;http://www.wikidata.org/prop/direct/P17&gt; ?country . ?country &lt;http://www.wikidata.org/prop/direct/P36&gt; ?uri . UNION &lt;http://www.wikidata.org/entity/Q26235529&gt; &lt;http://www.wikidata.org/prop/direct/P17&gt; ?country . ?country &lt;http://www.wikidata.org/prop/direct/P36&gt; ?uri . UNION &lt;http://www.wikidata.org/entity/Q5451&gt; &lt;http://www.wikidata.org/prop/direct/P17&gt; ?country . ?country &lt;http://www.wikidata.org/prop/direct/P36&gt; ?uri . }",\n        "startIndex": 184,\n        "stopIndex": 188\n    },\n    "query": "SELECT DISTINCT ?uri WHERE { &lt;http://www.wikidata.org/entity/Q105981852&gt; &lt;http://www.wikidata.org/prop/direct/P17&gt; ?country . ?country &lt;http://www.wikidata.org/prop/direct/P36&gt; ?uri . UNION &lt;http://www.wikidata.org/entity/Q26235529&gt; &lt;http://www.wikidata.org/prop/direct/P17&gt; ?country . ?country &lt;http://www.wikidata.org/prop/direct/P36&gt; ?uri . UNION &lt;http://www.wikidata.org/entity/Q5451&gt; &lt;http://www.wikidata.org/prop/direct/P17&gt; ?country . ?country &lt;http://www.wikidata.org/prop/direct/P36&gt; ?uri . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"Directed\\": mismatched input \'Directed\' expecting \'}\'",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 149,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P57 wd:Q56094. Directed by Francis Ford Coppola }",\n        "startIndex": 149,\n        "stopIndex": 156\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P57 wd:Q56094. Directed by Francis Ford Coppola }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"Assuming\\": mismatched input \'Assuming\' expecting \'}\'",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 195,\n        "query": "PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?album WHERE { ?album wdt:P175 wd:Q15862 ; wdt:P577 ?d . FILTER ( Lang(?d) = \'en\') Assuming English release dates FILTER NOT EXISTS { ?earlierAlbum wdt:P175 wd:Q15862 ; wdt:P577 ?earlierDate . FILTER ( Lang(?earlierDate) = \'en\') Assuming English release dates FILTER (?earlierDate &lt; ?d) } ORDER BY ASC(?d) OFFSET 0 LIMIT 1 }",\n        "startIndex": 195,\n        "stopIndex": 202\n    },\n    "query": "PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?album WHERE { ?album wdt:P175 wd:Q15862 ; wdt:P577 ?d . FILTER ( Lang(?d) = \'en\') Assuming English release dates FILTER NOT EXISTS { ?earlierAlbum wdt:P175 wd:Q15862 ; wdt:P577 ?earlierDate . FILTER ( Lang(?earlierDate) = \'en\') Assuming English release dates FILTER (?earlierDate &lt; ?d) } ORDER BY ASC(?d) OFFSET 0 LIMIT 1 }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"&lt;http://www.wikidata.org/entity/P38&gt;\\": extraneous input \'&lt;http://www.wikidata.org/entity/P38&gt;\' expecting \'}\'",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 86,\n        "query": "SELECT DISTINCT ?uri WHERE { ?s ?p ?uri . ?s &lt;http://www.wikidata.org/entity/Q213&gt; ?p &lt;http://www.wikidata.org/entity/P38&gt; }",\n        "startIndex": 86,\n        "stopIndex": 121\n    },\n    "query": "SELECT DISTINCT ?uri WHERE { ?s ?p ?uri . ?s &lt;http://www.wikidata.org/entity/Q213&gt; ?p &lt;http://www.wikidata.org/entity/P38&gt; }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>EndPointInternalError: The endpoint returned the HTTP status code 500. 
-Response:
-b'{\n    "exception": "Assertion `it != inputs.end()` failed. Please report this to the developers. In file \\"/app/src/engine/sparqlExpressions/AggregateExpression.h \\" at line 128",\n    "query": "SELECT DISTINCT ?uri WHERE { ?uri &lt;http://www.wikidata.org/entity/P106&gt; &lt;http://www.wikidata.org/entity/Q639669&gt; . ?x &lt;http://www.wikidata.org/entity/P50&gt; ?uri . ?x &lt;http://www.wikidata.org/entity/P31&gt; &lt;http://www.wikidata.org/entity/Q571&gt; . } ORDER BY DESC(COUNT(?x)) OFFSET 0 LIMIT 1",\n    "resultsize": 0,\n    "runtimeInformation": {\n        "cache_status": "computed",\n        "children": [\n            {\n                "cache_status": "computed",\n                "children": [\n                    {\n                        "cache_status": "computed",\n                        "children": [\n                            {\n                                "cache_status": "computed",\n                                "children": [\n                                    {\n                                        "cache_status": "computed",\n                                        "children": [\n                                            {\n                                                "cache_status": "computed",\n                                                "children": [\n                                                    {\n                                                        "cache_status": "computed",\n                                                        "children": [\n                                                            {\n                                                                "cache_status": "computed",\n                                                                "children": [],\n                                                                "column_names": [\n                                                                    "?uri"\n                                                                ],\n                                                                "description": "IndexScan ?uri &lt;http://www.wikidata.org/entity/P106&gt; &lt;http://www.wikidata.org/entity/Q639669&gt;",\n                                                                "details": null,\n                                                                "estimated_column_multiplicities": [\n                                                                    1.0\n                                                                ],\n                                                                "estimated_operation_cost": 0,\n                                                                "estimated_size": 0,\n                                                                "estimated_total_cost": 0,\n                                                                "operation_time": 0,\n                                                                "original_operation_time": 0,\n                                                                "original_total_time": 0,\n                                                                "result_cols": 1,\n                                                                "result_rows": 0,\n                                                                "status": "optimized out",\n                                                                "total_time": 0\n                                                            },\n                                                            {\n                                                                "cache_status": "computed",\n                                                                "children": [],\n                                                                "column_names": [\n                                                                    "?uri",\n                                                                    "?x"\n                                                                ],\n                                                                "description": "IndexScan ?x &lt;http://www.wikidata.org/entity/P50&gt; ?uri",\n                                                                "details": null,\n                                                                "estimated_column_multiplicities": [\n                                                                    1.0,\n                                                                    1.0\n                                                                ],\n                                                                "estimated_operation_cost": 0,\n                                                                "estimated_size": 0,\n                                                                "estimated_total_cost": 0,\n                                                                "operation_time": 0,\n                                                                "original_operation_time": 0,\n                                                                "original_total_time": 0,\n                                                                "result_cols": 2,\n                                                                "result_rows": 0,\n                                                                "status": "optimized out",\n                                                                "total_time": 0\n                                                            }\n                                                        ],\n                                                        "column_names": [\n                                                            "?uri",\n                                                            "?x"\n                                                        ],\n                                                        "description": "Join on ?uri",\n                                                        "details": null,\n                                                        "estimated_column_multiplicities": [\n                                                            1.0,\n                                                            1.0\n                                                        ],\n                                                        "estimated_operation_cost": 0,\n                                                        "estimated_size": 0,\n                                                        "estimated_total_cost": 0,\n                                                        "operation_time": 0,\n                                                        "original_operation_time": 0,\n                                                        "original_total_time": 0,\n                                                        "result_cols": 2,\n                                                        "result_rows": 0,\n                                                        "status": "optimized out",\n                                                        "total_time": 0\n                                                    }\n                                                ],\n                                                "column_names": [\n                                                    "?uri",\n                                                    "?x"\n                                                ],\n                                                "description": "Sort (internal order) on ?x",\n                                                "details": null,\n                                                "estimated_column_multiplicities": [\n                                                    1.0,\n                                                    1.0\n                                                ],\n                                                "estimated_operation_cost": 1,\n                                                "estimated_size": 0,\n                                                "estimated_total_cost": 1,\n                                                "operation_time": 0,\n                                                "original_operation_time": 0,\n                                                "original_total_time": 0,\n                                                "result_cols": 2,\n                                                "result_rows": 0,\n                                                "status": "optimized out",\n                                                "total_time": 0\n                                            },\n                                            {\n                                                "cache_status": "computed",\n                                                "children": [],\n                                                "column_names": [\n                                                    "?x"\n                                                ],\n                                                "description": "IndexScan ?x &lt;http://www.wikidata.org/entity/P31&gt; &lt;http://www.wikidata.org/entity/Q571&gt;",\n                                                "details": null,\n                                                "estimated_column_multiplicities": [\n                                                    1.0\n                                                ],\n                                                "estimated_operation_cost": 0,\n                                                "estimated_size": 0,\n                                                "estimated_total_cost": 0,\n                                                "operation_time": 0,\n                                                "original_operation_time": 0,\n                                                "original_total_time": 0,\n                                                "result_cols": 1,\n                                                "result_rows": 0,\n                                                "status": "optimized out",\n                                                "total_time": 0\n                                            }\n                                        ],\n                                        "column_names": [\n                                            "?uri",\n                                            "?x"\n                                        ],\n                                        "description": "Join on ?x",\n                                        "details": null,\n                                        "estimated_column_multiplicities": [\n                                            1.0,\n                                            1.0\n                                        ],\n                                        "estimated_operation_cost": 0,\n                                        "estimated_size": 0,\n                                        "estimated_total_cost": 1,\n                                        "operation_time": 0,\n                                        "original_operation_time": 0,\n                                        "original_total_time": 0,\n                                        "result_cols": 2,\n                                        "result_rows": 0,\n                                        "status": "fully materialized",\n                                        "total_time": 0\n                                    }\n                                ],\n                                "column_names": [\n                                    "?uri",\n                                    "?x",\n                                    "?_QLever_internal_variable_0 (U)"\n                                ],\n                                "description": "BIND ((COUNT(?x)) AS ?_QLever_internal_variable_0)",\n                                "details": null,\n                                "estimated_column_multiplicities": [\n                                    1.0,\n                                    1.0,\n                                    1.0\n                                ],\n                                "estimated_operation_cost": 0,\n                                "estimated_size": 0,\n                                "estimated_total_cost": 1,\n                                "operation_time": 0,\n                                "original_operation_time": 0,\n                                "original_total_time": 0,\n                                "result_cols": 3,\n                                "result_rows": 0,\n                                "status": "failed",\n                                "total_time": 0\n                            }\n                        ],\n                        "column_names": [\n                            "?uri",\n                            "?x",\n                            "?_QLever_internal_variable_0 (U)"\n                        ],\n                        "description": "Sort (internal order) on ?uri",\n                        "details": null,\n                        "estimated_column_multiplicities": [\n                            1.0,\n                            1.0,\n                            1.0\n                        ],\n                        "estimated_operation_cost": 0,\n                        "estimated_size": 0,\n                        "estimated_total_cost": 1,\n                        "operation_time": 1,\n                        "original_operation_time": 0,\n                        "original_total_time": 0,\n                        "result_cols": 3,\n                        "result_rows": 0,\n                        "status": "failed because child failed",\n                        "total_time": 1\n                    }\n                ],\n                "column_names": [\n                    "?uri",\n                    "?x",\n                    "?_QLever_internal_variable_0 (U)"\n                ],\n                "description": "Distinct",\n                "details": null,\n                "estimated_column_multiplicities": [\n                    1.0,\n                    1.0,\n                    1.0\n                ],\n                "estimated_operation_cost": 0,\n                "estimated_size": 0,\n                "estimated_total_cost": 1,\n                "operation_time": 0,\n                "original_operation_time": 0,\n                "original_total_time": 0,\n                "result_cols": 3,\n                "result_rows": 0,\n                "status": "failed because child failed",\n                "total_time": 1\n            }\n        ],\n        "column_names": [\n            "?uri",\n            "?x",\n            "?_QLever_internal_variable_0 (U)"\n        ],\n        "description": "OrderBy on DESC(?_QLever_internal_variable_0)",\n        "details": null,\n        "estimated_column_multiplicities": [\n            1.0,\n            1.0,\n            1.0\n        ],\n        "estimated_operation_cost": 0,\n        "estimated_size": 0,\n        "estimated_total_cost": 1,\n        "operation_time": 4,\n        "original_operation_time": 0,\n        "original_total_time": 0,\n        "result_cols": 3,\n        "result_rows": 0,\n        "status": "failed because child failed",\n        "total_time": 5\n    },\n    "status": "ERROR",\n    "time": {\n        "computeResult": 8,\n        "total": 8\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wd was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 71,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?uri WHERE { wd:Q596 wdt:P61 ?uri }",\n        "startIndex": 71,\n        "stopIndex": 77\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?uri WHERE { wd:Q596 wdt:P61 ?uri }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"UNION\\": mismatched input \'UNION\' expecting \'}\'",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 198,\n        "query": "SELECT DISTINCT ?uri WHERE { ?uri &lt;http://www.wikidata.org/entity/P106&gt; &lt;http://www.wikidata.org/entity/Q5280538&gt; ; &lt;http://www.wikidata.org/entity/P1303&gt; &lt;http://www.wikidata.org/entity/Q119621&gt; . UNION { ?uri &lt;http://www.wikidata.org/entity/P106&gt; &lt;http://www.wikidata.org/entity/Q5280538&gt; ; &lt;http://www.wikidata.org/entity/P1303&gt; &lt;http://www.wikidata.org/entity/Q8338&gt; . } UNION { ?uri &lt;http://www.wikidata.org/entity/P106&gt; &lt;http://www.wikidata.org/entity/Q806349&gt; ; &lt;http://www.wikidata.org/entity/P1303&gt; &lt;http://www.wikidata.org/entity/Q119621&gt; . } UNION { ?uri &lt;http://www.wikidata.org/entity/P106&gt; &lt;http://www.wikidata.org/entity/Q806349&gt; ; &lt;http://www.wikidata.org/entity/P1303&gt; &lt;http://www.wikidata.org/entity/Q8338&gt; . } }",\n        "startIndex": 198,\n        "stopIndex": 202\n    },\n    "query": "SELECT DISTINCT ?uri WHERE { ?uri &lt;http://www.wikidata.org/entity/P106&gt; &lt;http://www.wikidata.org/entity/Q5280538&gt; ; &lt;http://www.wikidata.org/entity/P1303&gt; &lt;http://www.wikidata.org/entity/Q119621&gt; . UNION { ?uri &lt;http://www.wikidata.org/entity/P106&gt; &lt;http://www.wikidata.org/entity/Q5280538&gt; ; &lt;http://www.wikidata.org/entity/P1303&gt; &lt;http://www.wikidata.org/entity/Q8338&gt; . } UNION { ?uri &lt;http://www.wikidata.org/entity/P106&gt; &lt;http://www.wikidata.org/entity/Q806349&gt; ; &lt;http://www.wikidata.org/entity/P1303&gt; &lt;http://www.wikidata.org/entity/Q119621&gt; . } UNION { ?uri &lt;http://www.wikidata.org/entity/P106&gt; &lt;http://www.wikidata.org/entity/Q806349&gt; ; &lt;http://www.wikidata.org/entity/P1303&gt; &lt;http://www.wikidata.org/entity/Q8338&gt; . } }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wd was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 29,\n        "query": "SELECT DISTINCT ?uri WHERE { wd:Q1009 wdt:P36 ?uri }",\n        "startIndex": 29,\n        "stopIndex": 36\n    },\n    "query": "SELECT DISTINCT ?uri WHERE { wd:Q1009 wdt:P36 ?uri }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>EndPointInternalError: The endpoint returned the HTTP status code 500. 
-Response:
-b'{\n    "exception": "Tried to allocate 30.1 GB, but only 19.9 GB were available. Clear the cache or allow more memory for QLever during startup",\n    "query": "SELECT (COUNT(DISTINCT ?uri) AS ?c) WHERE { ?uri a ?wikidata_id }",\n    "resultsize": 0,\n    "runtimeInformation": {\n        "cache_status": "computed",\n        "children": [\n            {\n                "cache_status": "computed",\n                "children": [],\n                "column_names": [\n                    "?uri",\n                    "?wikidata_id"\n                ],\n                "description": "IndexScan ?uri &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#type&gt; ?wikidata_id",\n                "details": null,\n                "estimated_column_multiplicities": [\n                    1.743576169013977,\n                    2169983.25\n                ],\n                "estimated_operation_cost": 3760581155,\n                "estimated_size": 3760581155,\n                "estimated_total_cost": 3760581155,\n                "operation_time": 6,\n                "original_operation_time": 0,\n                "original_total_time": 0,\n                "result_cols": 2,\n                "result_rows": 0,\n                "status": "failed",\n                "total_time": 6\n            }\n        ],\n        "column_names": [\n            "?c (U)"\n        ],\n        "description": "GroupBy (implicit)",\n        "details": null,\n        "estimated_column_multiplicities": [\n            1.0\n        ],\n        "estimated_operation_cost": 0,\n        "estimated_size": 1,\n        "estimated_total_cost": 3760581155,\n        "operation_time": 2,\n        "original_operation_time": 0,\n        "original_total_time": 0,\n        "result_cols": 1,\n        "result_rows": 0,\n        "status": "failed because child failed",\n        "total_time": 8\n    },\n    "status": "ERROR",\n    "time": {\n        "computeResult": 9,\n        "total": 9\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"wd\\": mismatched input \'wd\' expecting {\'(\', \'[\', \'true\', \'false\', IRI_REF, PNAME_NS, PNAME_LN, BLANK_NODE_LABEL, VAR1, VAR2, PREFIX_LANGTAG, INTEGER, DECIMAL, DOUBLE, INTEGER_POSITIVE, DECIMAL_POSITIVE, DOUBLE_POSITIVE, INTEGER_NEGATIVE, DECIMAL_NEGATIVE, DOUBLE_NEGATIVE, STRING_LITERAL1, STRING_LITERAL2, STRING_LITERAL_LONG1, STRING_LITERAL_LONG2, NIL, ANON}",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 42,\n        "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd/Q11631. { ?uri wdt:P27 wd/Q2184 } UNION { ?uri wdt:P27 wd/Q15180 } }",\n        "startIndex": 42,\n        "stopIndex": 43\n    },\n    "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd/Q11631. { ?uri wdt:P27 wd/Q2184 } UNION { ?uri wdt:P27 wd/Q15180 } }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wd was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 28,\n        "query": "SELECT ?Mexico_City WHERE { wd:Q1489 wdt:P1082 ?Mexico_City . }",\n        "startIndex": 28,\n        "stopIndex": 35\n    },\n    "query": "SELECT ?Mexico_City WHERE { wd:Q1489 wdt:P1082 ?Mexico_City . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\".\\": mismatched input \'.\' expecting {\'(\', \'[\', \'true\', \'false\', IRI_REF, PNAME_NS, PNAME_LN, BLANK_NODE_LABEL, VAR1, VAR2, PREFIX_LANGTAG, INTEGER, DECIMAL, DOUBLE, INTEGER_POSITIVE, DECIMAL_POSITIVE, DOUBLE_POSITIVE, INTEGER_NEGATIVE, DECIMAL_NEGATIVE, DOUBLE_NEGATIVE, STRING_LITERAL1, STRING_LITERAL2, STRING_LITERAL_LONG1, STRING_LITERAL_LONG2, NIL, ANON}",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 115,\n        "query": "SELECT ?tarea WHERE { ?s &lt;http://www.wikidata.org/entity/P2046&gt; ?tarea . ?s &lt;http://www.wikidata.org/entity/Q1198&gt; . }",\n        "startIndex": 115,\n        "stopIndex": 115\n    },\n    "query": "SELECT ?tarea WHERE { ?s &lt;http://www.wikidata.org/entity/P2046&gt; ?tarea . ?s &lt;http://www.wikidata.org/entity/Q1198&gt; . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"UNION\\": mismatched input \'UNION\' expecting \'}\'",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 170,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q11424; wdt:P17 wd:Q5257925. UNION ?uri wdt:P31 wd:Q11424; wdt:P17 wd:Q35. }",\n        "startIndex": 170,\n        "stopIndex": 174\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q11424; wdt:P17 wd:Q5257925. UNION ?uri wdt:P31 wd:Q11424; wdt:P17 wd:Q35. }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 40,\n        "query": "SELECT DISTINCT ?uri WHERE { ?himalayas wdt:P17 ?uri }",\n        "startIndex": 40,\n        "stopIndex": 46\n    },\n    "query": "SELECT DISTINCT ?uri WHERE { ?himalayas wdt:P17 ?uri }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wd was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 26,\n        "query": "SELECT ?Almamater WHERE { wd:Q567 wdt:P69 ?Almamater . }",\n        "startIndex": 26,\n        "stopIndex": 32\n    },\n    "query": "SELECT ?Almamater WHERE { wd:Q567 wdt:P69 ?Almamater . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>Query Bad Formed</t>
-  </si>
-  <si>
-    <t>Missing P31</t>
-  </si>
-  <si>
-    <t>Wrong Property</t>
-  </si>
-  <si>
-    <t>Structural Error</t>
-  </si>
-  <si>
-    <t>Wrong Entity</t>
-  </si>
-  <si>
-    <t>Property treated as Entity</t>
-  </si>
-  <si>
-    <t>Entity treated as Property</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\"UNION\\": mismatched input \'UNION\' expecting \'}\'",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 170,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nPREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q11424; wdt:P17 wd:Q5257925. UNION ?uri wdt:P31 wd:Q11424; wdt:P17 wd:Q35. }",\n        "startIndex": 468,\n        "stopIndex": 472\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nPREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q11424; wdt:P17 wd:Q5257925. UNION ?uri wdt:P31 wd:Q11424; wdt:P17 wd:Q35. }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri WHERE { ?himalayas wdt:P17 ?uri }</t>
+  </si>
+  <si>
+    <t>['http://www.wikidata.org/entity/Q1000', 'http://www.wikidata.org/entity/Q1003588', 'http://www.wikidata.org/entity/Q1003997', 'http://www.wikidata.org/entity/Q1004578', 'http://www.wikidata.org/entity/Q1005', 'http://www.wikidata.org/entity/Q1006', 'http://www.wikidata.org/entity/Q1006293', 'http://www.wikidata.org/entity/Q1007', 'http://www.wikidata.org/entity/Q100707543', 'http://www.wikidata.org/entity/Q100728519', 'http://www.wikidata.org/entity/Q1008', 'http://www.wikidata.org/entity/Q100873314', 'http://www.wikidata.org/entity/Q100874532', 'http://www.wikidata.org/entity/Q1009', 'http://www.wikidata.org/entity/Q100982791', 'http://www.wikidata.org/entity/Q1010624', 'http://www.wikidata.org/entity/Q101081', 'http://www.wikidata.org/entity/Q1011', 'http://www.wikidata.org/entity/Q1013', 'http://www.wikidata.org/entity/Q1014', 'http://www.wikidata.org/entity/Q1014430', 'http://www.wikidata.org/entity/Q1016', 'http://www.wikidata.org/entity/Q1016336', 'http://www.wikidata.org/entity/Q1016823', 'http://www.wikidata.org/entity/Q1019', 'http://www.wikidata.org/entity/Q1019335', 'http://www.wikidata.org/entity/Q1020', 'http://www.wikidata.org/entity/Q102350', 'http://www.wikidata.org/entity/Q1025', 'http://www.wikidata.org/entity/Q102679', 'http://www.wikidata.org/entity/Q1027', 'http://www.wikidata.org/entity/Q1027828', 'http://www.wikidata.org/entity/Q1028', 'http://www.wikidata.org/entity/Q1028133', 'http://www.wikidata.org/entity/Q1028614', 'http://www.wikidata.org/entity/Q1028835', 'http://www.wikidata.org/entity/Q1028848', 'http://www.wikidata.org/entity/Q10289365', 'http://www.wikidata.org/entity/Q1029', 'http://www.wikidata.org/entity/Q102911', 'http://www.wikidata.org/entity/Q10295972', 'http://www.wikidata.org/entity/Q1029966', 'http://www.wikidata.org/entity/Q1030', 'http://www.wikidata.org/entity/Q1030288', 'http://www.wikidata.org/entity/Q103093', 'http://www.wikidata.org/entity/Q10313', 'http://www.wikidata.org/entity/Q1031430', 'http://www.wikidata.org/entity/Q1032', 'http://www.wikidata.org/entity/Q103251', 'http://www.wikidata.org/entity/Q1033', 'http://www.wikidata.org/entity/Q1034173', 'http://www.wikidata.org/entity/Q10359001', 'http://www.wikidata.org/entity/Q1036', 'http://www.wikidata.org/entity/Q1037', 'http://www.wikidata.org/entity/Q103801', 'http://www.wikidata.org/entity/Q10389', 'http://www.wikidata.org/entity/Q1039', 'http://www.wikidata.org/entity/Q103906065', 'http://www.wikidata.org/entity/Q1039186', 'http://www.wikidata.org/entity/Q103967772', 'http://www.wikidata.org/entity/Q103967940', 'http://www.wikidata.org/entity/Q104028', 'http://www.wikidata.org/entity/Q1041', 'http://www.wikidata.org/entity/Q10416611', 'http://www.wikidata.org/entity/Q104178238', 'http://www.wikidata.org/entity/Q104178581', 'http://www.wikidata.org/entity/Q104178598', 'http://www.wikidata.org/entity/Q104192511', 'http://www.wikidata.org/entity/Q104192518', 'http://www.wikidata.org/entity/Q1042', 'http://www.wikidata.org/entity/Q104231', 'http://www.wikidata.org/entity/Q104285', 'http://www.wikidata.org/entity/Q104309', 'http://www.wikidata.org/entity/Q10436544', 'http://www.wikidata.org/entity/Q1044', 'http://www.wikidata.org/entity/Q104434355', 'http://www.wikidata.org/entity/Q1044536', 'http://www.wikidata.org/entity/Q104471321', 'http://www.wikidata.org/entity/Q104472514', 'http://www.wikidata.org/entity/Q1045', 'http://www.wikidata.org/entity/Q104520', 'http://www.wikidata.org/entity/Q1045322', 'http://www.wikidata.org/entity/Q10463', 'http://www.wikidata.org/entity/Q104766296', 'http://www.wikidata.org/entity/Q104813213', 'http://www.wikidata.org/entity/Q1048340', 'http://www.wikidata.org/entity/Q104863335', 'http://www.wikidata.org/entity/Q1048918', 'http://www.wikidata.org/entity/Q1049', 'http://www.wikidata.org/entity/Q104916586', 'http://www.wikidata.org/entity/Q1050', 'http://www.wikidata.org/entity/Q1050859', 'http://www.wikidata.org/entity/Q105092', 'http://www.wikidata.org/entity/Q105098', 'http://www.wikidata.org/entity/Q1052040', 'http://www.wikidata.org/entity/Q105206', 'http://www.wikidata.org/entity/Q1052867', 'http://www.wikidata.org/entity/Q105295', 'http://www.wikidata.org/entity/Q105313', 'http://www.wikidata.org/entity/Q10531418', 'http://www.wikidata.org/entity/Q1054184', 'http://www.wikidata.org/entity/Q1054580', 'http://www.wikidata.org/entity/Q1054746', 'http://www.wikidata.org/entity/Q10549052', 'http://www.wikidata.org/entity/Q1054910', 'http://www.wikidata.org/entity/Q1054923', 'http://www.wikidata.org/entity/Q1055', 'http://www.wikidata.org/entity/Q10555398', 'http://www.wikidata.org/entity/Q105567983', 'http://www.wikidata.org/entity/Q105568320', 'http://www.wikidata.org/entity/Q1055713', 'http://www.wikidata.org/entity/Q105633625', 'http://www.wikidata.org/entity/Q105633777', 'http://www.wikidata.org/entity/Q105699357', 'http://www.wikidata.org/entity/Q1057542', 'http://www.wikidata.org/entity/Q1059551', 'http://www.wikidata.org/entity/Q1059707', 'http://www.wikidata.org/entity/Q1060072', 'http://www.wikidata.org/entity/Q1061', 'http://www.wikidata.org/entity/Q106143110', 'http://www.wikidata.org/entity/Q1061488', 'http://www.wikidata.org/entity/Q10615930', 'http://www.wikidata.org/entity/Q1062546', 'http://www.wikidata.org/entity/Q106281', 'http://www.wikidata.org/entity/Q1062946', 'http://www.wikidata.org/entity/Q1063498', 'http://www.wikidata.org/entity/Q106395898', 'http://www.wikidata.org/entity/Q106396892', 'http://www.wikidata.org/entity/Q106396961', 'http://www.wikidata.org/entity/Q1064825', 'http://www.wikidata.org/entity/Q1065', 'http://www.wikidata.org/entity/Q1065073', 'http://www.wikidata.org/entity/Q1065299', 'http://www.wikidata.org/entity/Q106540698', 'http://www.wikidata.org/entity/Q106576497', 'http://www.wikidata.org/entity/Q106577', 'http://www.wikidata.org/entity/Q106698080', 'http://www.wikidata.org/entity/Q106789', 'http://www.wikidata.org/entity/Q106955', 'http://www.wikidata.org/entity/Q1069609', 'http://www.wikidata.org/entity/Q106963081', 'http://www.wikidata.org/entity/Q1069829', 'http://www.wikidata.org/entity/Q1069868', 'http://www.wikidata.org/entity/Q1069959', 'http://www.wikidata.org/entity/Q1070529', 'http://www.wikidata.org/entity/Q107103741', 'http://www.wikidata.org/entity/Q1071142', 'http://www.wikidata.org/entity/Q10711424', 'http://www.wikidata.org/entity/Q107121906', 'http://www.wikidata.org/entity/Q107122476', 'http://www.wikidata.org/entity/Q107122539', 'http://www.wikidata.org/entity/Q107122657', 'http://www.wikidata.org/entity/Q1071439', 'http://www.wikidata.org/entity/Q1071661', 'http://www.wikidata.org/entity/Q107171994', 'http://www.wikidata.org/entity/Q1072012', 'http://www.wikidata.org/entity/Q1072140', 'http://www.wikidata.org/entity/Q107217674', 'http://www.wikidata.org/entity/Q1072282', 'http://www.wikidata.org/entity/Q107230986', 'http://www.wikidata.org/entity/Q1072362', 'http://www.wikidata.org/entity/Q107258515', 'http://www.wikidata.org/entity/Q10726489', 'http://www.wikidata.org/entity/Q1072949', 'http://www.wikidata.org/entity/Q107297366', 'http://www.wikidata.org/entity/Q107299', 'http://www.wikidata.org/entity/Q1073388', 'http://www.wikidata.org/entity/Q107352630', 'http://www.wikidata.org/entity/Q107356467', 'http://www.wikidata.org/entity/Q107368497', 'http://www.wikidata.org/entity/Q107380', 'http://www.wikidata.org/entity/Q1074138', 'http://www.wikidata.org/entity/Q10749897', 'http://www.wikidata.org/entity/Q107616938', 'http://www.wikidata.org/entity/Q1077538', 'http://www.wikidata.org/entity/Q1077630', 'http://www.wikidata.org/entity/Q1078062', 'http://www.wikidata.org/entity/Q1078602', 'http://www.wikidata.org/entity/Q10791211', 'http://www.wikidata.org/entity/Q10800791', 'http://www.wikidata.org/entity/Q1081620', 'http://www.wikidata.org/entity/Q10827839', 'http://www.wikidata.org/entity/Q10828323', 'http://www.wikidata.org/entity/Q108330094', 'http://www.wikidata.org/entity/Q10841085', 'http://www.wikidata.org/entity/Q10841128', 'http://www.wikidata.org/entity/Q108451820', 'http://www.wikidata.org/entity/Q108527339', 'http://www.wikidata.org/entity/Q108566477', 'http://www.wikidata.org/entity/Q10857476', 'http://www.wikidata.org/entity/Q10860602', 'http://www.wikidata.org/entity/Q10861987', 'http://www.wikidata.org/entity/Q10885162', 'http://www.wikidata.org/entity/Q108865218', 'http://www.wikidata.org/entity/Q108865226', 'http://www.wikidata.org/entity/Q10888424', 'http://www.wikidata.org/entity/Q10889269', 'http://www.wikidata.org/entity/Q109057', 'http://www.wikidata.org/entity/Q1091034', 'http://www.wikidata.org/entity/Q10914393', 'http://www.wikidata.org/entity/Q1091663', 'http://www.wikidata.org/entity/Q1092758', 'http://www.wikidata.org/entity/Q1092770', 'http://www.wikidata.org/entity/Q10928369', 'http://www.wikidata.org/entity/Q1093572', 'http://www.wikidata.org/entity/Q10940250', 'http://www.wikidata.org/entity/Q1094194', 'http://www.wikidata.org/entity/Q10957559', 'http://www.wikidata.org/entity/Q109607', 'http://www.wikidata.org/entity/Q10971', 'http://www.wikidata.org/entity/Q10975458', 'http://www.wikidata.org/entity/Q1097943', 'http://www.wikidata.org/entity/Q109853245', 'http://www.wikidata.org/entity/Q10988528', 'http://www.wikidata.org/entity/Q110133597', 'http://www.wikidata.org/entity/Q1102030', 'http://www.wikidata.org/entity/Q11024667', 'http://www.wikidata.org/entity/Q110262017', 'http://www.wikidata.org/entity/Q110295172', 'http://www.wikidata.org/entity/Q11029653', 'http://www.wikidata.org/entity/Q110362913', 'http://www.wikidata.org/entity/Q110464831', 'http://www.wikidata.org/entity/Q1105411', 'http://www.wikidata.org/entity/Q110634999', 'http://www.wikidata.org/entity/Q1107789', 'http://www.wikidata.org/entity/Q1108445', 'http://www.wikidata.org/entity/Q110874607', 'http://www.wikidata.org/entity/Q11088223', 'http://www.wikidata.org/entity/Q110888', 'http://www.wikidata.org/entity/Q110904219', 'http://www.wikidata.org/entity/Q11091481', 'http://www.wikidata.org/entity/Q1109279', 'http://www.wikidata.org/entity/Q110985411', 'http://www.wikidata.org/entity/Q1110', 'http://www.wikidata.org/entity/Q11103925', 'http://www.wikidata.org/entity/Q11106449', 'http://www.wikidata.org/entity/Q111269932', 'http://www.wikidata.org/entity/Q111274070', 'http://www.wikidata.org/entity/Q111428979', 'http://www.wikidata.org/entity/Q111437164', 'http://www.wikidata.org/entity/Q111471', 'http://www.wikidata.org/entity/Q1115291', 'http://www.wikidata.org/entity/Q111623106', 'http://www.wikidata.org/entity/Q111628725', 'http://www.wikidata.org/entity/Q111673946', 'http://www.wikidata.org/entity/Q11175560', 'http://www.wikidata.org/entity/Q11177699', 'http://www.wikidata.org/entity/Q111785499', 'http://www.wikidata.org/entity/Q11178782', 'http://www.wikidata.org/entity/Q11179744', 'http://www.wikidata.org/entity/Q11180184', 'http://www.wikidata.org/entity/Q111805383', 'http://www.wikidata.org/entity/Q111822288', 'http://www.wikidata.org/entity/Q111830494', 'http://www.wikidata.org/entity/Q111848623', 'http://www.wikidata.org/entity/Q11194', 'http://www.wikidata.org/entity/Q11196', 'http://www.wikidata.org/entity/Q111960008', 'http://www.wikidata.org/entity/Q11198', 'http://www.wikidata.org/entity/Q112099', 'http://www.wikidata.org/entity/Q112117355', 'http://www.wikidata.org/entity/Q11214098', 'http://www.wikidata.org/entity/Q1121436', 'http://www.wikidata.org/entity/Q1121819', 'http://www.wikidata.org/entity/Q1122052', 'http://www.wikidata.org/entity/Q11225429', 'http://www.wikidata.org/entity/Q1122980', 'http://www.wikidata.org/entity/Q1123960', 'http://www.wikidata.org/entity/Q112571764', 'http://www.wikidata.org/entity/Q112623501', 'http://www.wikidata.org/entity/Q112660052', 'http://www.wikidata.org/entity/Q1126678', 'http://www.wikidata.org/entity/Q11275466', 'http://www.wikidata.org/entity/Q11285099', 'http://www.wikidata.org/entity/Q1129036', 'http://www.wikidata.org/entity/Q112934', 'http://www.wikidata.org/entity/Q1129493', 'http://www.wikidata.org/entity/Q11297604', 'http://www.wikidata.org/entity/Q11299497', 'http://www.wikidata.org/entity/Q1131500', 'http://www.wikidata.org/entity/Q113253410', 'http://www.wikidata.org/entity/Q1134180', 'http://www.wikidata.org/entity/Q11344632', 'http://www.wikidata.org/entity/Q113490712', 'http://www.wikidata.org/entity/Q1135255', 'http://www.wikidata.org/entity/Q1136188', 'http://www.wikidata.org/entity/Q113673', 'http://www.wikidata.org/entity/Q113674418', 'http://www.wikidata.org/entity/Q1138904', 'http://www.wikidata.org/entity/Q1139807', 'http://www.wikidata.org/entity/Q114', 'http://www.wikidata.org/entity/Q1140152', 'http://www.wikidata.org/entity/Q1140829', 'http://www.wikidata.org/entity/Q1141215', 'http://www.wikidata.org/entity/Q1141295', 'http://www.wikidata.org/entity/Q1141471', 'http://www.wikidata.org/entity/Q1142', 'http://www.wikidata.org/entity/Q1142179', 'http://www.wikidata.org/entity/Q11424', 'http://www.wikidata.org/entity/Q1143126', 'http://www.wikidata.org/entity/Q1143164', 'http://www.wikidata.org/entity/Q114318324', 'http://www.wikidata.org/entity/Q114318415', 'http://www.wikidata.org/entity/Q1143233', 'http://www.wikidata.org/entity/Q114327408', 'http://www.wikidata.org/entity/Q114334914', 'http://www.wikidata.org/entity/Q114347595', 'http://www.wikidata.org/entity/Q1143524', 'http://www.wikidata.org/entity/Q114354473', 'http://www.wikidata.org/entity/Q1144305', 'http://www.wikidata.org/entity/Q1145059', 'http://www.wikidata.org/entity/Q1145416', 'http://www.wikidata.org/entity/Q1145470', 'http://www.wikidata.org/entity/Q1146786', 'http://www.wikidata.org/entity/Q1147037', 'http://www.wikidata.org/entity/Q1147043', 'http://www.wikidata.org/entity/Q1147441', 'http://www.wikidata.org/entity/Q114771354', 'http://www.wikidata.org/entity/Q1147897', 'http://www.wikidata.org/entity/Q1148042', 'http://www.wikidata.org/entity/Q1148125', 'http://www.wikidata.org/entity/Q1148907', 'http://www.wikidata.org/entity/Q1148929', 'http://www.wikidata.org/entity/Q1149081', 'http://www.wikidata.org/entity/Q1149098', 'http://www.wikidata.org/entity/Q1149230', 'http://www.wikidata.org/entity/Q115', 'http://www.wikidata.org/entity/Q115007', 'http://www.wikidata.org/entity/Q1150344', 'http://www.wikidata.org/entity/Q1151241', 'http://www.wikidata.org/entity/Q1151943', 'http://www.wikidata.org/entity/Q1151968', 'http://www.wikidata.org/entity/Q115203670', 'http://www.wikidata.org/entity/Q1152126', 'http://www.wikidata.org/entity/Q1152445', 'http://www.wikidata.org/entity/Q115308377', 'http://www.wikidata.org/entity/Q115367777', 'http://www.wikidata.org/entity/Q115395247', 'http://www.wikidata.org/entity/Q1154406', 'http://www.wikidata.org/entity/Q1154540', 'http://www.wikidata.org/entity/Q1154556', 'http://www.wikidata.org/entity/Q1155101', 'http://www.wikidata.org/entity/Q1155700', 'http://www.wikidata.org/entity/Q115596078', 'http://www.wikidata.org/entity/Q1156248', 'http://www.wikidata.org/entity/Q1157215', 'http://www.wikidata.org/entity/Q115862177', 'http://www.wikidata.org/entity/Q1159', 'http://www.wikidata.org/entity/Q115933987', 'http://www.wikidata.org/entity/Q115939834', 'http://www.wikidata.org/entity/Q116027062', 'http://www.wikidata.org/entity/Q116080', 'http://www.wikidata.org/entity/Q11608382', 'http://www.wikidata.org/entity/Q1161521', 'http://www.wikidata.org/entity/Q116158418', 'http://www.wikidata.org/entity/Q1161616', 'http://www.wikidata.org/entity/Q116238', 'http://www.wikidata.org/entity/Q116250004', 'http://www.wikidata.org/entity/Q116251951', 'http://www.wikidata.org/entity/Q116262040', 'http://www.wikidata.org/entity/Q116262110', 'http://www.wikidata.org/entity/Q116262380', 'http://www.wikidata.org/entity/Q116262495', 'http://www.wikidata.org/entity/Q116262564', 'http://www.wikidata.org/entity/Q116262984', 'http://www.wikidata.org/entity/Q116264004', 'http://www.wikidata.org/entity/Q116294355', 'http://www.wikidata.org/entity/Q11634225', 'http://www.wikidata.org/entity/Q1163552', 'http://www.wikidata.org/entity/Q1164', 'http://www.wikidata.org/entity/Q1164500', 'http://www.wikidata.org/entity/Q116478189', 'http://www.wikidata.org/entity/Q1165', 'http://www.wikidata.org/entity/Q1165546', 'http://www.wikidata.org/entity/Q1166', 'http://www.wikidata.org/entity/Q116807138', 'http://www.wikidata.org/entity/Q1168578', 'http://www.wikidata.org/entity/Q11688796', 'http://www.wikidata.org/entity/Q116896904', 'http://www.wikidata.org/entity/Q116921199', 'http://www.wikidata.org/entity/Q11694484', 'http://www.wikidata.org/entity/Q11696012', 'http://www.wikidata.org/entity/Q117', 'http://www.wikidata.org/entity/Q117011417', 'http://www.wikidata.org/entity/Q11703', 'http://www.wikidata.org/entity/Q11708', 'http://www.wikidata.org/entity/Q1171', 'http://www.wikidata.org/entity/Q11710624', 'http://www.wikidata.org/entity/Q11733281', 'http://www.wikidata.org/entity/Q1174', 'http://www.wikidata.org/entity/Q11744447', 'http://www.wikidata.org/entity/Q117462228', 'http://www.wikidata.org/entity/Q11750526', 'http://www.wikidata.org/entity/Q11750538', 'http://www.wikidata.org/entity/Q11755466', 'http://www.wikidata.org/entity/Q11764451', 'http://www.wikidata.org/entity/Q11766300', 'http://www.wikidata.org/entity/Q11767', 'http://www.wikidata.org/entity/Q11768', 'http://www.wikidata.org/entity/Q117714', 'http://www.wikidata.org/entity/Q11772', 'http://www.wikidata.org/entity/Q11774', 'http://www.wikidata.org/entity/Q11777696', 'http://www.wikidata.org/entity/Q11789749', 'http://www.wikidata.org/entity/Q11790332', 'http://www.wikidata.org/entity/Q11792255', 'http://www.wikidata.org/entity/Q1180', 'http://www.wikidata.org/entity/Q11805', 'http://www.wikidata.org/entity/Q11812551', 'http://www.wikidata.org/entity/Q1183', 'http://www.wikidata.org/entity/Q1183407', 'http://www.wikidata.org/entity/Q118350', 'http://www.wikidata.org/entity/Q1184', 'http://www.wikidata.org/entity/Q11844865', 'http://www.wikidata.org/entity/Q1185', 'http://www.wikidata.org/entity/Q118592557', 'http://www.wikidata.org/entity/Q118594040', 'http://www.wikidata.org/entity/Q1186', 'http://www.wikidata.org/entity/Q11876909', 'http://www.wikidata.org/entity/Q1187978', 'http://www.wikidata.org/entity/Q1188', 'http://www.wikidata.org/entity/Q1188046', 'http://www.wikidata.org/entity/Q1188222', 'http://www.wikidata.org/entity/Q118834995', 'http://www.wikidata.org/entity/Q1188459', 'http://www.wikidata.org/entity/Q118995', 'http://www.wikidata.org/entity/Q1190582', 'http://www.wikidata.org/entity/Q1191', 'http://www.wikidata.org/entity/Q11911', 'http://www.wikidata.org/entity/Q1191125', 'http://www.wikidata.org/entity/Q11913408', 'http://www.wikidata.org/entity/Q11916644', 'http://www.wikidata.org/entity/Q1191986', 'http://www.wikidata.org/entity/Q1192067', 'http://www.wikidata.org/entity/Q11920950', 'http://www.wikidata.org/entity/Q11925', 'http://www.wikidata.org/entity/Q1192701', 'http://www.wikidata.org/entity/Q11929', 'http://www.wikidata.org/entity/Q1192936', 'http://www.wikidata.org/entity/Q11933', 'http://www.wikidata.org/entity/Q1193806', 'http://www.wikidata.org/entity/Q1193822', 'http://www.wikidata.org/entity/Q1193879', 'http://www.wikidata.org/entity/Q1194', 'http://www.wikidata.org/entity/Q11940', 'http://www.wikidata.org/entity/Q1195', 'http://www.wikidata.org/entity/Q11953081', 'http://www.wikidata.org/entity/Q11959', 'http://www.wikidata.org/entity/Q1196', 'http://www.wikidata.org/entity/Q1196201', 'http://www.wikidata.org/entity/Q1197', 'http://www.wikidata.org/entity/Q11972', 'http://www.wikidata.org/entity/Q1198', 'http://www.wikidata.org/entity/Q1198071', 'http://www.wikidata.org/entity/Q1198163', 'http://www.wikidata.org/entity/Q1199', 'http://www.wikidata.org/entity/Q1199327', 'http://www.wikidata.org/entity/Q1200', 'http://www.wikidata.org/entity/Q1201', 'http://www.wikidata.org/entity/Q1201477', 'http://www.wikidata.org/entity/Q1202', 'http://www.wikidata.org/entity/Q1203967', 'http://www.wikidata.org/entity/Q1204', 'http://www.wikidata.org/entity/Q1205', 'http://www.wikidata.org/entity/Q12053604', 'http://www.wikidata.org/entity/Q12054842', 'http://www.wikidata.org/entity/Q12059960', 'http://www.wikidata.org/entity/Q1206', 'http://www.wikidata.org/entity/Q1206012', 'http://www.wikidata.org/entity/Q12060804', 'http://www.wikidata.org/entity/Q12060881', 'http://www.wikidata.org/entity/Q120616440', 'http://www.wikidata.org/entity/Q120628936', 'http://www.wikidata.org/entity/Q120629151', 'http://www.wikidata.org/entity/Q1206293', 'http://www.wikidata.org/entity/Q120652386', 'http://www.wikidata.org/entity/Q120658877', 'http://www.wikidata.org/entity/Q120730', 'http://www.wikidata.org/entity/Q1208', 'http://www.wikidata.org/entity/Q1209', 'http://www.wikidata.org/entity/Q1209822', 'http://www.wikidata.org/entity/Q1210', 'http://www.wikidata.org/entity/Q1211919', 'http://www.wikidata.org/entity/Q1212', 'http://www.wikidata.org/entity/Q12121', 'http://www.wikidata.org/entity/Q121358981', 'http://www.wikidata.org/entity/Q121378', 'http://www.wikidata.org/entity/Q121405150', 'http://www.wikidata.org/entity/Q12141429', 'http://www.wikidata.org/entity/Q121437220', 'http://www.wikidata.org/entity/Q12150341', 'http://www.wikidata.org/entity/Q1216', 'http://www.wikidata.org/entity/Q12163800', 'http://www.wikidata.org/entity/Q12172', 'http://www.wikidata.org/entity/Q1218', 'http://www.wikidata.org/entity/Q12183875', 'http://www.wikidata.org/entity/Q121932', 'http://www.wikidata.org/entity/Q1221', 'http://www.wikidata.org/entity/Q122131', 'http://www.wikidata.org/entity/Q12229205', 'http://www.wikidata.org/entity/Q1223', 'http://www.wikidata.org/entity/Q122443', 'http://www.wikidata.org/entity/Q1224630', 'http://www.wikidata.org/entity/Q1226918', 'http://www.wikidata.org/entity/Q1227', 'http://www.wikidata.org/entity/Q1227125', 'http://www.wikidata.org/entity/Q122790477', 'http://www.wikidata.org/entity/Q1229422', 'http://www.wikidata.org/entity/Q1229919', 'http://www.wikidata.org/entity/Q123027565', 'http://www.wikidata.org/entity/Q1231', 'http://www.wikidata.org/entity/Q1231403', 'http://www.wikidata.org/entity/Q123173313', 'http://www.wikidata.org/entity/Q123196', 'http://www.wikidata.org/entity/Q1232392', 'http://www.wikidata.org/entity/Q1232459', 'http://www.wikidata.org/entity/Q1232509', 'http://www.wikidata.org/entity/Q1232887', 'http://www.wikidata.org/entity/Q1232988', 'http://www.wikidata.org/entity/Q123352982', 'http://www.wikidata.org/entity/Q1233672', 'http://www.wikidata.org/entity/Q123378592', 'http://www.wikidata.org/entity/Q123421221', 'http://www.wikidata.org/entity/Q123431669', 'http://www.wikidata.org/entity/Q123432106', 'http://www.wikidata.org/entity/Q123552', 'http://www.wikidata.org/entity/Q12355425', 'http://www.wikidata.org/entity/Q123559', 'http://www.wikidata.org/entity/Q123566422', 'http://www.wikidata.org/entity/Q1235720', 'http://www.wikidata.org/entity/Q1235737', 'http://www.wikidata.org/entity/Q123576003', 'http://www.wikidata.org/entity/Q123759', 'http://www.wikidata.org/entity/Q124003554', 'http://www.wikidata.org/entity/Q1240096', 'http://www.wikidata.org/entity/Q12404132', 'http://www.wikidata.org/entity/Q12406729', 'http://www.wikidata.org/entity/Q12407080', 'http://www.wikidata.org/entity/Q1241847', 'http://www.wikidata.org/entity/Q124254507', 'http://www.wikidata.org/entity/Q1243', 'http://www.wikidata.org/entity/Q124304839', 'http://www.wikidata.org/entity/Q124305333', 'http://www.wikidata.org/entity/Q124316878', 'http://www.wikidata.org/entity/Q124434121', 'http://www.wikidata.org/entity/Q1244742', 'http://www.wikidata.org/entity/Q1246', 'http://www.wikidata.org/entity/Q124611346', 'http://www.wikidata.org/entity/Q1246837', 'http://www.wikidata.org/entity/Q1247020', 'http://www.wikidata.org/entity/Q1247159', 'http://www.wikidata.org/entity/Q124738742', 'http://www.wikidata.org/entity/Q12482871', 'http://www.wikidata.org/entity/Q124839943', 'http://www.wikidata.org/entity/Q124883406', 'http://www.wikidata.org/entity/Q12490507', 'http://www.wikidata.org/entity/Q1249230', 'http://www.wikidata.org/entity/Q124943', 'http://www.wikidata.org/entity/Q1250763', 'http://www.wikidata.org/entity/Q125304691', 'http://www.wikidata.org/entity/Q12536', 'http://www.wikidata.org/entity/Q12544', 'http://www.wikidata.org/entity/Q12548', 'http://www.wikidata.org/entity/Q1255', 'http://www.wikidata.org/entity/Q12552451', 'http://www.wikidata.org/entity/Q12557', 'http://www.wikidata.org/entity/Q12557054', 'http://www.wikidata.org/entity/Q1256', 'http://www.wikidata.org/entity/Q12560', 'http://www.wikidata.org/entity/Q125675829', 'http://www.wikidata.org/entity/Q125695582', 'http://www.wikidata.org/entity/Q125761', 'http://www.wikidata.org/entity/Q12585', 'http://www.wikidata.org/entity/Q12602', 'http://www.wikidata.org/entity/Q126084', 'http://www.wikidata.org/entity/Q1261', 'http://www.wikidata.org/entity/Q126125', 'http://www.wikidata.org/entity/Q1261908', 'http://www.wikidata.org/entity/Q12622719', 'http://www.wikidata.org/entity/Q126285302', 'http://www.wikidata.org/entity/Q1263', 'http://www.wikidata.org/entity/Q126368057', 'http://www.wikidata.org/entity/Q12641662', 'http://www.wikidata.org/entity/Q12642600', 'http://www.wikidata.org/entity/Q1264808', 'http://www.wikidata.org/entity/Q12649101', 'http://www.wikidata.org/entity/Q12661', 'http://www.wikidata.org/entity/Q126685015', 'http://www.wikidata.org/entity/Q126936', 'http://www.wikidata.org/entity/Q127176487', 'http://www.wikidata.org/entity/Q12724', 'http://www.wikidata.org/entity/Q1273', 'http://www.wikidata.org/entity/Q12738', 'http://www.wikidata.org/entity/Q127416773', 'http://www.wikidata.org/entity/Q1274468', 'http://www.wikidata.org/entity/Q12746', 'http://www.wikidata.org/entity/Q127513', 'http://www.wikidata.org/entity/Q12766653', 'http://www.wikidata.org/entity/Q12771', 'http://www.wikidata.org/entity/Q127755434', 'http://www.wikidata.org/entity/Q1277557', 'http://www.wikidata.org/entity/Q127765950', 'http://www.wikidata.org/entity/Q127773699', 'http://www.wikidata.org/entity/Q127773997', 'http://www.wikidata.org/entity/Q127775357', 'http://www.wikidata.org/entity/Q127861', 'http://www.wikidata.org/entity/Q12793', 'http://www.wikidata.org/entity/Q1280', 'http://www.wikidata.org/entity/Q12817455', 'http://www.wikidata.org/entity/Q12824780', 'http://www.wikidata.org/entity/Q128323', 'http://www.wikidata.org/entity/Q12837', 'http://www.wikidata.org/entity/Q128446394', 'http://www.wikidata.org/entity/Q1286', 'http://www.wikidata.org/entity/Q1286223', 'http://www.wikidata.org/entity/Q12864290', 'http://www.wikidata.org/entity/Q128791354', 'http://www.wikidata.org/entity/Q128904', 'http://www.wikidata.org/entity/Q128938', 'http://www.wikidata.org/entity/Q12898802', 'http://www.wikidata.org/entity/Q129003', 'http://www.wikidata.org/entity/Q1290149', 'http://www.wikidata.org/entity/Q129237', 'http://www.wikidata.org/entity/Q129286', 'http://www.wikidata.org/entity/Q1292987', 'http://www.wikidata.org/entity/Q129352', 'http://www.wikidata.org/entity/Q129469586', 'http://www.wikidata.org/entity/Q12950808', 'http://www.wikidata.org/entity/Q1297', 'http://www.wikidata.org/entity/Q1297894', 'http://www.wikidata.org/entity/Q12979830', 'http://www.wikidata.org/entity/Q12982818', 'http://www.wikidata.org/entity/Q1301901', 'http://www.wikidata.org/entity/Q130216', 'http://www.wikidata.org/entity/Q130229', 'http://www.wikidata.org/entity/Q130251145', 'http://www.wikidata.org/entity/Q130276', 'http://www.wikidata.org/entity/Q130280', 'http://www.wikidata.org/entity/Q130280283', 'http://www.wikidata.org/entity/Q130281346', 'http://www.wikidata.org/entity/Q13031709', 'http://www.wikidata.org/entity/Q130340667', 'http://www.wikidata.org/entity/Q130405068', 'http://www.wikidata.org/entity/Q130463380', 'http://www.wikidata.org/entity/Q130536585', 'http://www.wikidata.org/entity/Q130626', 'http://www.wikidata.org/entity/Q130654', 'http://www.wikidata.org/entity/Q13072974', 'http://www.wikidata.org/entity/Q130842', 'http://www.wikidata.org/entity/Q130978', 'http://www.wikidata.org/entity/Q13099569', 'http://www.wikidata.org/entity/Q13107370', 'http://www.wikidata.org/entity/Q131083', 'http://www.wikidata.org/entity/Q1311219', 'http://www.wikidata.org/entity/Q13116', 'http://www.wikidata.org/entity/Q1311704', 'http://www.wikidata.org/entity/Q131198', 'http://www.wikidata.org/entity/Q1311990', 'http://www.wikidata.org/entity/Q131301', 'http://www.wikidata.org/entity/Q131320', 'http://www.wikidata.org/entity/Q131337', 'http://www.wikidata.org/entity/Q13134285', 'http://www.wikidata.org/entity/Q13134747', 'http://www.wikidata.org/entity/Q13140400', 'http://www.wikidata.org/entity/Q13140547', 'http://www.wikidata.org/entity/Q131434', 'http://www.wikidata.org/entity/Q13160', 'http://www.wikidata.org/entity/Q1317579', 'http://www.wikidata.org/entity/Q1317991', 'http://www.wikidata.org/entity/Q131802', 'http://www.wikidata.org/entity/Q131886', 'http://www.wikidata.org/entity/Q1319348', 'http://www.wikidata.org/entity/Q13194779', 'http://www.wikidata.org/entity/Q131964', 'http://www.wikidata.org/entity/Q132', 'http://www.wikidata.org/entity/Q1320053', 'http://www.wikidata.org/entity/Q1320058', 'http://www.wikidata.org/entity/Q1321', 'http://www.wikidata.org/entity/Q1321824', 'http://www.wikidata.org/entity/Q1322181', 'http://www.wikidata.org/entity/Q132241', 'http://www.wikidata.org/entity/Q1322562', 'http://www.wikidata.org/entity/Q1322662', 'http://www.wikidata.org/entity/Q132272', 'http://www.wikidata.org/entity/Q1324889', 'http://www.wikidata.org/entity/Q132646', 'http://www.wikidata.org/entity/Q132659', 'http://www.wikidata.org/entity/Q1326742', 'http://www.wikidata.org/entity/Q1328546', 'http://www.wikidata.org/entity/Q132856', 'http://www.wikidata.org/entity/Q132931', 'http://www.wikidata.org/entity/Q13300', 'http://www.wikidata.org/entity/Q1330290', 'http://www.wikidata.org/entity/Q1330965', 'http://www.wikidata.org/entity/Q133132', 'http://www.wikidata.org/entity/Q133356', 'http://www.wikidata.org/entity/Q1334322', 'http://www.wikidata.org/entity/Q133442', 'http://www.wikidata.org/entity/Q1335260', 'http://www.wikidata.org/entity/Q133529', 'http://www.wikidata.org/entity/Q13353', 'http://www.wikidata.org/entity/Q13373', 'http://www.wikidata.org/entity/Q1337854', 'http://www.wikidata.org/entity/Q13389', 'http://www.wikidata.org/entity/Q13405524', 'http://www.wikidata.org/entity/Q13406463', 'http://www.wikidata.org/entity/Q13410267', 'http://www.wikidata.org/entity/Q13411057', 'http://www.wikidata.org/entity/Q13411328', 'http://www.wikidata.org/entity/Q13415123', 'http://www.wikidata.org/entity/Q13417403', 'http://www.wikidata.org/entity/Q134178', 'http://www.wikidata.org/entity/Q13422906', 'http://www.wikidata.org/entity/Q13426199', 'http://www.wikidata.org/entity/Q13427044', 'http://www.wikidata.org/entity/Q13433', 'http://www.wikidata.org/entity/Q1343485', 'http://www.wikidata.org/entity/Q1345964', 'http://www.wikidata.org/entity/Q13474305', 'http://www.wikidata.org/entity/Q134907', 'http://www.wikidata.org/entity/Q135028', 'http://www.wikidata.org/entity/Q1352', 'http://www.wikidata.org/entity/Q1352878', 'http://www.wikidata.org/entity/Q13533316', 'http://www.wikidata.org/entity/Q13533353', 'http://www.wikidata.org/entity/Q13534654', 'http://www.wikidata.org/entity/Q1354', 'http://www.wikidata.org/entity/Q1354899', 'http://www.wikidata.org/entity/Q1355', 'http://www.wikidata.org/entity/Q1356', 'http://www.wikidata.org/entity/Q1356549', 'http://www.wikidata.org/entity/Q13590051', 'http://www.wikidata.org/entity/Q1361', 'http://www.wikidata.org/entity/Q1361989', 'http://www.wikidata.org/entity/Q1363688', 'http://www.wikidata.org/entity/Q1364478', 'http://www.wikidata.org/entity/Q1365493', 'http://www.wikidata.org/entity/Q1366757', 'http://www.wikidata.org/entity/Q1368026', 'http://www.wikidata.org/entity/Q1368792', 'http://www.wikidata.org/entity/Q136884', 'http://www.wikidata.org/entity/Q1370', 'http://www.wikidata.org/entity/Q137014', 'http://www.wikidata.org/entity/Q13703', 'http://www.wikidata.org/entity/Q1370527', 'http://www.wikidata.org/entity/Q13706', 'http://www.wikidata.org/entity/Q1371', 'http://www.wikidata.org/entity/Q13780930', 'http://www.wikidata.org/entity/Q137816', 'http://www.wikidata.org/entity/Q1378225', 'http://www.wikidata.org/entity/Q1378584', 'http://www.wikidata.org/entity/Q1381504', 'http://www.wikidata.org/entity/Q13816636', 'http://www.wikidata.org/entity/Q1384', 'http://www.wikidata.org/entity/Q1387', 'http://www.wikidata.org/entity/Q138837', 'http://www.wikidata.org/entity/Q13895', 'http://www.wikidata.org/entity/Q1391', 'http://www.wikidata.org/entity/Q1392840', 'http://www.wikidata.org/entity/Q1393', 'http://www.wikidata.org/entity/Q139315', 'http://www.wikidata.org/entity/Q139319', 'http://w</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q6256; wdt:P2046 ?n } ORDER BY DESC(?n) OFFSET 0 LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT ?Almamater WHERE { wd:Q567 wdt:P69 ?Almamater . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri WHERE { &lt;http://www.wikidata.org/entity/Q111135&gt; &lt;http://www.wikidata.org/entity/P170&gt; ?uri }</t>
   </si>
 </sst>
 </file>
@@ -1843,13 +2389,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1874,25 +2420,34 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C2" t="s">
         <v>108</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>208</v>
       </c>
-      <c r="D2" t="s">
-        <v>308</v>
-      </c>
       <c r="E2" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="F2" t="s">
-        <v>418</v>
+        <v>318</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
@@ -1901,24 +2456,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
       <c r="B3" t="s">
+        <v>331</v>
+      </c>
+      <c r="C3" t="s">
         <v>109</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>209</v>
       </c>
-      <c r="D3" t="s">
-        <v>309</v>
-      </c>
       <c r="E3" t="s">
-        <v>309</v>
+        <v>209</v>
       </c>
       <c r="F3" t="s">
-        <v>418</v>
+        <v>318</v>
       </c>
       <c r="G3" t="b">
         <v>1</v>
@@ -1927,50 +2482,53 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
       <c r="B4" t="s">
+        <v>332</v>
+      </c>
+      <c r="C4" t="s">
         <v>110</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>210</v>
       </c>
-      <c r="D4" t="s">
-        <v>310</v>
-      </c>
       <c r="E4" t="s">
-        <v>334</v>
+        <v>234</v>
       </c>
       <c r="F4" t="s">
-        <v>419</v>
+        <v>333</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <v>319</v>
+      </c>
+      <c r="I4" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
       <c r="B5" t="s">
+        <v>334</v>
+      </c>
+      <c r="C5" t="s">
         <v>111</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>211</v>
       </c>
-      <c r="D5" t="s">
-        <v>311</v>
-      </c>
       <c r="E5" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="F5" t="s">
-        <v>418</v>
+        <v>318</v>
       </c>
       <c r="G5" t="b">
         <v>1</v>
@@ -1979,544 +2537,598 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
       <c r="B6" t="s">
+        <v>335</v>
+      </c>
+      <c r="C6" t="s">
         <v>112</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>212</v>
       </c>
-      <c r="D6" t="s">
-        <v>312</v>
-      </c>
       <c r="E6" t="s">
-        <v>335</v>
+        <v>235</v>
       </c>
       <c r="F6" t="s">
-        <v>418</v>
+        <v>318</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+        <v>320</v>
+      </c>
+      <c r="I6" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
       <c r="B7" t="s">
+        <v>336</v>
+      </c>
+      <c r="C7" t="s">
         <v>113</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>213</v>
       </c>
-      <c r="D7" t="s">
-        <v>313</v>
-      </c>
       <c r="E7" t="s">
-        <v>336</v>
+        <v>236</v>
       </c>
       <c r="F7" t="s">
-        <v>418</v>
+        <v>318</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>14</v>
       </c>
       <c r="B8" t="s">
+        <v>337</v>
+      </c>
+      <c r="C8" t="s">
         <v>114</v>
       </c>
-      <c r="C8" t="s">
-        <v>214</v>
-      </c>
       <c r="D8" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="E8" t="s">
-        <v>337</v>
+        <v>237</v>
       </c>
       <c r="F8" t="s">
-        <v>420</v>
+        <v>338</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+        <v>319</v>
+      </c>
+      <c r="I8" t="s">
+        <v>323</v>
+      </c>
+      <c r="J8" t="s">
+        <v>321</v>
+      </c>
+      <c r="K8" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>15</v>
       </c>
       <c r="B9" t="s">
+        <v>339</v>
+      </c>
+      <c r="C9" t="s">
         <v>115</v>
       </c>
-      <c r="C9" t="s">
-        <v>215</v>
-      </c>
       <c r="D9" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="E9" t="s">
-        <v>338</v>
+        <v>238</v>
       </c>
       <c r="F9" t="s">
-        <v>418</v>
+        <v>318</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+        <v>320</v>
+      </c>
+      <c r="I9" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>16</v>
       </c>
       <c r="B10" t="s">
+        <v>340</v>
+      </c>
+      <c r="C10" t="s">
         <v>116</v>
       </c>
-      <c r="C10" t="s">
-        <v>216</v>
-      </c>
       <c r="D10" t="s">
-        <v>310</v>
+        <v>341</v>
       </c>
       <c r="E10" t="s">
-        <v>339</v>
+        <v>239</v>
       </c>
       <c r="F10" t="s">
-        <v>421</v>
+        <v>318</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>17</v>
       </c>
       <c r="B11" t="s">
+        <v>342</v>
+      </c>
+      <c r="C11" t="s">
         <v>117</v>
       </c>
-      <c r="C11" t="s">
-        <v>217</v>
-      </c>
       <c r="D11" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="E11" t="s">
-        <v>340</v>
+        <v>240</v>
       </c>
       <c r="F11" t="s">
-        <v>422</v>
+        <v>343</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+        <v>319</v>
+      </c>
+      <c r="I11" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>18</v>
       </c>
       <c r="B12" t="s">
+        <v>344</v>
+      </c>
+      <c r="C12" t="s">
         <v>118</v>
       </c>
-      <c r="C12" t="s">
-        <v>218</v>
-      </c>
       <c r="D12" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="E12" t="s">
-        <v>341</v>
+        <v>241</v>
       </c>
       <c r="F12" t="s">
-        <v>418</v>
+        <v>318</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>19</v>
       </c>
       <c r="B13" t="s">
+        <v>345</v>
+      </c>
+      <c r="C13" t="s">
         <v>119</v>
       </c>
-      <c r="C13" t="s">
-        <v>219</v>
-      </c>
       <c r="D13" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="E13" t="s">
-        <v>342</v>
+        <v>242</v>
       </c>
       <c r="F13" t="s">
-        <v>418</v>
+        <v>318</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>20</v>
       </c>
       <c r="B14" t="s">
+        <v>346</v>
+      </c>
+      <c r="C14" t="s">
         <v>120</v>
       </c>
-      <c r="C14" t="s">
-        <v>220</v>
-      </c>
       <c r="D14" t="s">
-        <v>314</v>
+        <v>214</v>
       </c>
       <c r="E14" t="s">
-        <v>343</v>
+        <v>243</v>
       </c>
       <c r="F14" t="s">
-        <v>418</v>
+        <v>318</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+        <v>321</v>
+      </c>
+      <c r="I14" t="s">
+        <v>323</v>
+      </c>
+      <c r="J14" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>21</v>
       </c>
       <c r="B15" t="s">
+        <v>347</v>
+      </c>
+      <c r="C15" t="s">
         <v>121</v>
       </c>
-      <c r="C15" t="s">
-        <v>221</v>
-      </c>
       <c r="D15" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="E15" t="s">
-        <v>344</v>
+        <v>244</v>
       </c>
       <c r="F15" t="s">
-        <v>423</v>
+        <v>348</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+        <v>319</v>
+      </c>
+      <c r="I15" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>349</v>
+      </c>
+      <c r="C16" t="s">
         <v>122</v>
       </c>
-      <c r="C16" t="s">
-        <v>222</v>
-      </c>
       <c r="D16" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="E16" t="s">
-        <v>345</v>
+        <v>245</v>
       </c>
       <c r="F16" t="s">
-        <v>418</v>
+        <v>318</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>23</v>
       </c>
       <c r="B17" t="s">
+        <v>350</v>
+      </c>
+      <c r="C17" t="s">
         <v>123</v>
       </c>
-      <c r="C17" t="s">
-        <v>223</v>
-      </c>
       <c r="D17" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="E17" t="s">
-        <v>346</v>
+        <v>246</v>
       </c>
       <c r="F17" t="s">
-        <v>418</v>
+        <v>318</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+        <v>320</v>
+      </c>
+      <c r="I17" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>24</v>
       </c>
       <c r="B18" t="s">
+        <v>351</v>
+      </c>
+      <c r="C18" t="s">
         <v>124</v>
       </c>
-      <c r="C18" t="s">
-        <v>224</v>
-      </c>
       <c r="D18" t="s">
-        <v>315</v>
+        <v>215</v>
       </c>
       <c r="E18" t="s">
-        <v>347</v>
+        <v>247</v>
       </c>
       <c r="F18" t="s">
-        <v>418</v>
+        <v>318</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>25</v>
       </c>
       <c r="B19" t="s">
+        <v>352</v>
+      </c>
+      <c r="C19" t="s">
         <v>125</v>
       </c>
-      <c r="C19" t="s">
-        <v>225</v>
-      </c>
       <c r="D19" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="E19" t="s">
-        <v>348</v>
+        <v>248</v>
       </c>
       <c r="F19" t="s">
-        <v>424</v>
+        <v>353</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+        <v>319</v>
+      </c>
+      <c r="I19" t="s">
+        <v>323</v>
+      </c>
+      <c r="J19" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>26</v>
       </c>
       <c r="B20" t="s">
+        <v>354</v>
+      </c>
+      <c r="C20" t="s">
         <v>126</v>
       </c>
-      <c r="C20" t="s">
-        <v>226</v>
-      </c>
       <c r="D20" t="s">
-        <v>310</v>
+        <v>249</v>
       </c>
       <c r="E20" t="s">
-        <v>349</v>
+        <v>249</v>
       </c>
       <c r="F20" t="s">
-        <v>425</v>
+        <v>318</v>
       </c>
       <c r="G20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>27</v>
       </c>
       <c r="B21" t="s">
+        <v>355</v>
+      </c>
+      <c r="C21" t="s">
         <v>127</v>
       </c>
-      <c r="C21" t="s">
-        <v>227</v>
-      </c>
       <c r="D21" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="E21" t="s">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="F21" t="s">
-        <v>418</v>
+        <v>318</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+        <v>324</v>
+      </c>
+      <c r="I21" t="s">
+        <v>321</v>
+      </c>
+      <c r="J21" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>28</v>
       </c>
       <c r="B22" t="s">
+        <v>356</v>
+      </c>
+      <c r="C22" t="s">
         <v>128</v>
       </c>
-      <c r="C22" t="s">
-        <v>228</v>
-      </c>
       <c r="D22" t="s">
-        <v>310</v>
+        <v>251</v>
       </c>
       <c r="E22" t="s">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="F22" t="s">
-        <v>426</v>
+        <v>318</v>
       </c>
       <c r="G22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>29</v>
       </c>
       <c r="B23" t="s">
+        <v>357</v>
+      </c>
+      <c r="C23" t="s">
         <v>129</v>
       </c>
-      <c r="C23" t="s">
-        <v>229</v>
-      </c>
       <c r="D23" t="s">
-        <v>316</v>
+        <v>216</v>
       </c>
       <c r="E23" t="s">
-        <v>352</v>
+        <v>252</v>
       </c>
       <c r="F23" t="s">
-        <v>418</v>
+        <v>318</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+        <v>320</v>
+      </c>
+      <c r="I23" t="s">
+        <v>321</v>
+      </c>
+      <c r="J23" t="s">
+        <v>323</v>
+      </c>
+      <c r="K23" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>30</v>
       </c>
       <c r="B24" t="s">
+        <v>358</v>
+      </c>
+      <c r="C24" t="s">
         <v>130</v>
       </c>
-      <c r="C24" t="s">
-        <v>230</v>
-      </c>
       <c r="D24" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="E24" t="s">
-        <v>353</v>
+        <v>253</v>
       </c>
       <c r="F24" t="s">
-        <v>418</v>
+        <v>318</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+        <v>324</v>
+      </c>
+      <c r="I24" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>31</v>
       </c>
       <c r="B25" t="s">
+        <v>359</v>
+      </c>
+      <c r="C25" t="s">
         <v>131</v>
       </c>
-      <c r="C25" t="s">
-        <v>231</v>
-      </c>
       <c r="D25" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="E25" t="s">
-        <v>354</v>
+        <v>254</v>
       </c>
       <c r="F25" t="s">
-        <v>418</v>
+        <v>318</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>32</v>
       </c>
       <c r="B26" t="s">
+        <v>360</v>
+      </c>
+      <c r="C26" t="s">
         <v>132</v>
       </c>
-      <c r="C26" t="s">
-        <v>232</v>
-      </c>
       <c r="D26" t="s">
-        <v>317</v>
+        <v>217</v>
       </c>
       <c r="E26" t="s">
-        <v>317</v>
+        <v>217</v>
       </c>
       <c r="F26" t="s">
-        <v>418</v>
+        <v>318</v>
       </c>
       <c r="G26" t="b">
         <v>1</v>
@@ -2525,24 +3137,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>33</v>
       </c>
       <c r="B27" t="s">
+        <v>361</v>
+      </c>
+      <c r="C27" t="s">
         <v>133</v>
       </c>
-      <c r="C27" t="s">
-        <v>233</v>
-      </c>
       <c r="D27" t="s">
-        <v>318</v>
+        <v>218</v>
       </c>
       <c r="E27" t="s">
-        <v>318</v>
+        <v>218</v>
       </c>
       <c r="F27" t="s">
-        <v>418</v>
+        <v>318</v>
       </c>
       <c r="G27" t="b">
         <v>1</v>
@@ -2551,24 +3163,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>34</v>
       </c>
       <c r="B28" t="s">
+        <v>362</v>
+      </c>
+      <c r="C28" t="s">
         <v>134</v>
       </c>
-      <c r="C28" t="s">
-        <v>234</v>
-      </c>
       <c r="D28" t="s">
-        <v>319</v>
+        <v>219</v>
       </c>
       <c r="E28" t="s">
-        <v>319</v>
+        <v>219</v>
       </c>
       <c r="F28" t="s">
-        <v>418</v>
+        <v>318</v>
       </c>
       <c r="G28" t="b">
         <v>1</v>
@@ -2577,50 +3189,53 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>35</v>
       </c>
       <c r="B29" t="s">
+        <v>363</v>
+      </c>
+      <c r="C29" t="s">
         <v>135</v>
       </c>
-      <c r="C29" t="s">
-        <v>235</v>
-      </c>
       <c r="D29" t="s">
-        <v>310</v>
+        <v>212</v>
       </c>
       <c r="E29" t="s">
-        <v>355</v>
+        <v>255</v>
       </c>
       <c r="F29" t="s">
-        <v>427</v>
+        <v>318</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+        <v>319</v>
+      </c>
+      <c r="I29" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>36</v>
       </c>
       <c r="B30" t="s">
+        <v>364</v>
+      </c>
+      <c r="C30" t="s">
         <v>136</v>
       </c>
-      <c r="C30" t="s">
-        <v>236</v>
-      </c>
       <c r="D30" t="s">
-        <v>320</v>
+        <v>220</v>
       </c>
       <c r="E30" t="s">
-        <v>320</v>
+        <v>220</v>
       </c>
       <c r="F30" t="s">
-        <v>418</v>
+        <v>318</v>
       </c>
       <c r="G30" t="b">
         <v>1</v>
@@ -2629,466 +3244,517 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>37</v>
       </c>
       <c r="B31" t="s">
+        <v>365</v>
+      </c>
+      <c r="C31" t="s">
         <v>137</v>
       </c>
-      <c r="C31" t="s">
-        <v>237</v>
-      </c>
       <c r="D31" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="E31" t="s">
-        <v>356</v>
+        <v>256</v>
       </c>
       <c r="F31" t="s">
-        <v>418</v>
+        <v>318</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
       </c>
       <c r="H31" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+        <v>321</v>
+      </c>
+      <c r="I31" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>38</v>
       </c>
       <c r="B32" t="s">
+        <v>366</v>
+      </c>
+      <c r="C32" t="s">
         <v>138</v>
       </c>
-      <c r="C32" t="s">
-        <v>238</v>
-      </c>
       <c r="D32" t="s">
-        <v>310</v>
+        <v>257</v>
       </c>
       <c r="E32" t="s">
-        <v>357</v>
+        <v>257</v>
       </c>
       <c r="F32" t="s">
-        <v>428</v>
+        <v>318</v>
       </c>
       <c r="G32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>39</v>
       </c>
       <c r="B33" t="s">
+        <v>367</v>
+      </c>
+      <c r="C33" t="s">
         <v>139</v>
       </c>
-      <c r="C33" t="s">
-        <v>239</v>
-      </c>
       <c r="D33" t="s">
-        <v>310</v>
+        <v>212</v>
       </c>
       <c r="E33" t="s">
-        <v>358</v>
+        <v>258</v>
       </c>
       <c r="F33" t="s">
-        <v>429</v>
+        <v>318</v>
       </c>
       <c r="G33" t="b">
         <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+        <v>319</v>
+      </c>
+      <c r="I33" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>40</v>
       </c>
       <c r="B34" t="s">
+        <v>368</v>
+      </c>
+      <c r="C34" t="s">
         <v>140</v>
       </c>
-      <c r="C34" t="s">
-        <v>240</v>
-      </c>
       <c r="D34" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="E34" t="s">
-        <v>359</v>
+        <v>259</v>
       </c>
       <c r="F34" t="s">
-        <v>430</v>
+        <v>369</v>
       </c>
       <c r="G34" t="b">
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+        <v>319</v>
+      </c>
+      <c r="I34" t="s">
+        <v>322</v>
+      </c>
+      <c r="J34" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>41</v>
       </c>
       <c r="B35" t="s">
+        <v>370</v>
+      </c>
+      <c r="C35" t="s">
         <v>141</v>
       </c>
-      <c r="C35" t="s">
-        <v>241</v>
-      </c>
       <c r="D35" t="s">
-        <v>321</v>
+        <v>221</v>
       </c>
       <c r="E35" t="s">
-        <v>360</v>
+        <v>260</v>
       </c>
       <c r="F35" t="s">
-        <v>418</v>
+        <v>318</v>
       </c>
       <c r="G35" t="b">
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+        <v>320</v>
+      </c>
+      <c r="I35" t="s">
+        <v>323</v>
+      </c>
+      <c r="J35" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>42</v>
       </c>
       <c r="B36" t="s">
+        <v>371</v>
+      </c>
+      <c r="C36" t="s">
         <v>142</v>
       </c>
-      <c r="C36" t="s">
-        <v>242</v>
-      </c>
       <c r="D36" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="E36" t="s">
-        <v>361</v>
+        <v>261</v>
       </c>
       <c r="F36" t="s">
-        <v>418</v>
+        <v>318</v>
       </c>
       <c r="G36" t="b">
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+        <v>320</v>
+      </c>
+      <c r="I36" t="s">
+        <v>323</v>
+      </c>
+      <c r="J36" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>43</v>
       </c>
       <c r="B37" t="s">
+        <v>372</v>
+      </c>
+      <c r="C37" t="s">
         <v>143</v>
       </c>
-      <c r="C37" t="s">
-        <v>243</v>
-      </c>
       <c r="D37" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="E37" t="s">
-        <v>362</v>
+        <v>262</v>
       </c>
       <c r="F37" t="s">
-        <v>418</v>
+        <v>318</v>
       </c>
       <c r="G37" t="b">
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+        <v>321</v>
+      </c>
+      <c r="I37" t="s">
+        <v>323</v>
+      </c>
+      <c r="J37" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>44</v>
       </c>
       <c r="B38" t="s">
+        <v>373</v>
+      </c>
+      <c r="C38" t="s">
         <v>144</v>
       </c>
-      <c r="C38" t="s">
-        <v>244</v>
-      </c>
       <c r="D38" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="E38" t="s">
-        <v>363</v>
+        <v>263</v>
       </c>
       <c r="F38" t="s">
-        <v>418</v>
+        <v>318</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+        <v>321</v>
+      </c>
+      <c r="I38" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>45</v>
       </c>
       <c r="B39" t="s">
+        <v>374</v>
+      </c>
+      <c r="C39" t="s">
         <v>145</v>
       </c>
-      <c r="C39" t="s">
-        <v>245</v>
-      </c>
       <c r="D39" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="E39" t="s">
-        <v>364</v>
+        <v>264</v>
       </c>
       <c r="F39" t="s">
-        <v>418</v>
+        <v>318</v>
       </c>
       <c r="G39" t="b">
         <v>0</v>
       </c>
       <c r="H39" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+        <v>324</v>
+      </c>
+      <c r="I39" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>46</v>
       </c>
       <c r="B40" t="s">
+        <v>375</v>
+      </c>
+      <c r="C40" t="s">
         <v>146</v>
       </c>
-      <c r="C40" t="s">
-        <v>246</v>
-      </c>
       <c r="D40" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="E40" t="s">
-        <v>365</v>
+        <v>265</v>
       </c>
       <c r="F40" t="s">
-        <v>418</v>
+        <v>318</v>
       </c>
       <c r="G40" t="b">
         <v>0</v>
       </c>
       <c r="H40" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>47</v>
       </c>
       <c r="B41" t="s">
+        <v>376</v>
+      </c>
+      <c r="C41" t="s">
         <v>147</v>
       </c>
-      <c r="C41" t="s">
-        <v>247</v>
-      </c>
       <c r="D41" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="E41" t="s">
-        <v>366</v>
+        <v>266</v>
       </c>
       <c r="F41" t="s">
-        <v>418</v>
+        <v>318</v>
       </c>
       <c r="G41" t="b">
         <v>0</v>
       </c>
       <c r="H41" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>48</v>
       </c>
       <c r="B42" t="s">
+        <v>377</v>
+      </c>
+      <c r="C42" t="s">
         <v>148</v>
       </c>
-      <c r="C42" t="s">
-        <v>248</v>
-      </c>
       <c r="D42" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="E42" t="s">
-        <v>367</v>
+        <v>267</v>
       </c>
       <c r="F42" t="s">
-        <v>431</v>
+        <v>378</v>
       </c>
       <c r="G42" t="b">
         <v>0</v>
       </c>
       <c r="H42" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+        <v>319</v>
+      </c>
+      <c r="I42" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>49</v>
       </c>
       <c r="B43" t="s">
+        <v>379</v>
+      </c>
+      <c r="C43" t="s">
         <v>149</v>
       </c>
-      <c r="C43" t="s">
-        <v>249</v>
-      </c>
       <c r="D43" t="s">
-        <v>310</v>
+        <v>380</v>
       </c>
       <c r="E43" t="s">
-        <v>368</v>
+        <v>268</v>
       </c>
       <c r="F43" t="s">
-        <v>432</v>
+        <v>318</v>
       </c>
       <c r="G43" t="b">
         <v>0</v>
       </c>
       <c r="H43" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+        <v>319</v>
+      </c>
+      <c r="I43" t="s">
+        <v>320</v>
+      </c>
+      <c r="J43" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>50</v>
       </c>
       <c r="B44" t="s">
+        <v>381</v>
+      </c>
+      <c r="C44" t="s">
         <v>150</v>
       </c>
-      <c r="C44" t="s">
-        <v>250</v>
-      </c>
       <c r="D44" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="E44" t="s">
-        <v>369</v>
+        <v>269</v>
       </c>
       <c r="F44" t="s">
-        <v>433</v>
+        <v>382</v>
       </c>
       <c r="G44" t="b">
         <v>0</v>
       </c>
       <c r="H44" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+        <v>319</v>
+      </c>
+      <c r="I44" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>51</v>
       </c>
       <c r="B45" t="s">
+        <v>383</v>
+      </c>
+      <c r="C45" t="s">
         <v>151</v>
       </c>
-      <c r="C45" t="s">
-        <v>251</v>
-      </c>
       <c r="D45" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="E45" t="s">
-        <v>370</v>
+        <v>270</v>
       </c>
       <c r="F45" t="s">
-        <v>418</v>
+        <v>318</v>
       </c>
       <c r="G45" t="b">
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+        <v>321</v>
+      </c>
+      <c r="I45" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>52</v>
       </c>
       <c r="B46" t="s">
+        <v>384</v>
+      </c>
+      <c r="C46" t="s">
         <v>152</v>
       </c>
-      <c r="C46" t="s">
-        <v>252</v>
-      </c>
       <c r="D46" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="E46" t="s">
-        <v>371</v>
+        <v>271</v>
       </c>
       <c r="F46" t="s">
-        <v>418</v>
+        <v>318</v>
       </c>
       <c r="G46" t="b">
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>53</v>
       </c>
       <c r="B47" t="s">
+        <v>385</v>
+      </c>
+      <c r="C47" t="s">
         <v>153</v>
       </c>
-      <c r="C47" t="s">
-        <v>253</v>
-      </c>
       <c r="D47" t="s">
-        <v>310</v>
+        <v>272</v>
       </c>
       <c r="E47" t="s">
-        <v>372</v>
+        <v>272</v>
       </c>
       <c r="F47" t="s">
-        <v>434</v>
+        <v>318</v>
       </c>
       <c r="G47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H47" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>54</v>
       </c>
       <c r="B48" t="s">
+        <v>386</v>
+      </c>
+      <c r="C48" t="s">
         <v>154</v>
       </c>
-      <c r="C48" t="s">
-        <v>254</v>
-      </c>
       <c r="D48" t="s">
-        <v>322</v>
+        <v>222</v>
       </c>
       <c r="E48" t="s">
-        <v>322</v>
+        <v>222</v>
       </c>
       <c r="F48" t="s">
-        <v>418</v>
+        <v>318</v>
       </c>
       <c r="G48" t="b">
         <v>1</v>
@@ -3097,24 +3763,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>55</v>
       </c>
       <c r="B49" t="s">
+        <v>387</v>
+      </c>
+      <c r="C49" t="s">
         <v>155</v>
       </c>
-      <c r="C49" t="s">
-        <v>255</v>
-      </c>
       <c r="D49" t="s">
-        <v>323</v>
+        <v>223</v>
       </c>
       <c r="E49" t="s">
-        <v>323</v>
+        <v>223</v>
       </c>
       <c r="F49" t="s">
-        <v>418</v>
+        <v>318</v>
       </c>
       <c r="G49" t="b">
         <v>1</v>
@@ -3123,24 +3789,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>56</v>
       </c>
       <c r="B50" t="s">
+        <v>388</v>
+      </c>
+      <c r="C50" t="s">
         <v>156</v>
       </c>
-      <c r="C50" t="s">
-        <v>256</v>
-      </c>
       <c r="D50" t="s">
-        <v>324</v>
+        <v>224</v>
       </c>
       <c r="E50" t="s">
-        <v>324</v>
+        <v>224</v>
       </c>
       <c r="F50" t="s">
-        <v>418</v>
+        <v>318</v>
       </c>
       <c r="G50" t="b">
         <v>1</v>
@@ -3149,24 +3815,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>57</v>
       </c>
       <c r="B51" t="s">
+        <v>389</v>
+      </c>
+      <c r="C51" t="s">
         <v>157</v>
       </c>
-      <c r="C51" t="s">
-        <v>257</v>
-      </c>
       <c r="D51" t="s">
-        <v>325</v>
+        <v>225</v>
       </c>
       <c r="E51" t="s">
-        <v>325</v>
+        <v>225</v>
       </c>
       <c r="F51" t="s">
-        <v>418</v>
+        <v>318</v>
       </c>
       <c r="G51" t="b">
         <v>1</v>
@@ -3175,206 +3841,221 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>58</v>
       </c>
       <c r="B52" t="s">
+        <v>390</v>
+      </c>
+      <c r="C52" t="s">
         <v>158</v>
       </c>
-      <c r="C52" t="s">
-        <v>258</v>
-      </c>
       <c r="D52" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="E52" t="s">
-        <v>373</v>
+        <v>273</v>
       </c>
       <c r="F52" t="s">
-        <v>435</v>
+        <v>391</v>
       </c>
       <c r="G52" t="b">
         <v>0</v>
       </c>
       <c r="H52" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+        <v>319</v>
+      </c>
+      <c r="I52" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>59</v>
       </c>
       <c r="B53" t="s">
+        <v>392</v>
+      </c>
+      <c r="C53" t="s">
         <v>159</v>
       </c>
-      <c r="C53" t="s">
-        <v>259</v>
-      </c>
       <c r="D53" t="s">
-        <v>310</v>
+        <v>274</v>
       </c>
       <c r="E53" t="s">
-        <v>374</v>
+        <v>274</v>
       </c>
       <c r="F53" t="s">
-        <v>436</v>
+        <v>318</v>
       </c>
       <c r="G53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>60</v>
       </c>
       <c r="B54" t="s">
+        <v>393</v>
+      </c>
+      <c r="C54" t="s">
         <v>160</v>
       </c>
-      <c r="C54" t="s">
-        <v>260</v>
-      </c>
       <c r="D54" t="s">
-        <v>310</v>
+        <v>212</v>
       </c>
       <c r="E54" t="s">
-        <v>375</v>
+        <v>275</v>
       </c>
       <c r="F54" t="s">
-        <v>437</v>
+        <v>318</v>
       </c>
       <c r="G54" t="b">
         <v>0</v>
       </c>
       <c r="H54" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+        <v>319</v>
+      </c>
+      <c r="I54" t="s">
+        <v>322</v>
+      </c>
+      <c r="J54" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>61</v>
       </c>
       <c r="B55" t="s">
+        <v>394</v>
+      </c>
+      <c r="C55" t="s">
         <v>161</v>
       </c>
-      <c r="C55" t="s">
-        <v>261</v>
-      </c>
       <c r="D55" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="E55" t="s">
-        <v>376</v>
+        <v>276</v>
       </c>
       <c r="F55" t="s">
-        <v>438</v>
+        <v>395</v>
       </c>
       <c r="G55" t="b">
         <v>0</v>
       </c>
       <c r="H55" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+        <v>319</v>
+      </c>
+      <c r="I55" t="s">
+        <v>322</v>
+      </c>
+      <c r="J55" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>62</v>
       </c>
       <c r="B56" t="s">
+        <v>396</v>
+      </c>
+      <c r="C56" t="s">
         <v>162</v>
       </c>
-      <c r="C56" t="s">
-        <v>262</v>
-      </c>
       <c r="D56" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="E56" t="s">
-        <v>377</v>
+        <v>277</v>
       </c>
       <c r="F56" t="s">
-        <v>418</v>
+        <v>318</v>
       </c>
       <c r="G56" t="b">
         <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>63</v>
       </c>
       <c r="B57" t="s">
+        <v>397</v>
+      </c>
+      <c r="C57" t="s">
         <v>163</v>
       </c>
-      <c r="C57" t="s">
-        <v>263</v>
-      </c>
       <c r="D57" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="E57" t="s">
-        <v>378</v>
+        <v>278</v>
       </c>
       <c r="F57" t="s">
-        <v>418</v>
+        <v>318</v>
       </c>
       <c r="G57" t="b">
         <v>0</v>
       </c>
       <c r="H57" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>64</v>
       </c>
       <c r="B58" t="s">
+        <v>398</v>
+      </c>
+      <c r="C58" t="s">
         <v>164</v>
       </c>
-      <c r="C58" t="s">
-        <v>264</v>
-      </c>
       <c r="D58" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="E58" t="s">
-        <v>379</v>
+        <v>279</v>
       </c>
       <c r="F58" t="s">
-        <v>439</v>
+        <v>399</v>
       </c>
       <c r="G58" t="b">
         <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>65</v>
       </c>
       <c r="B59" t="s">
+        <v>400</v>
+      </c>
+      <c r="C59" t="s">
         <v>165</v>
       </c>
-      <c r="C59" t="s">
-        <v>265</v>
-      </c>
       <c r="D59" t="s">
-        <v>326</v>
+        <v>226</v>
       </c>
       <c r="E59" t="s">
-        <v>326</v>
+        <v>226</v>
       </c>
       <c r="F59" t="s">
-        <v>418</v>
+        <v>318</v>
       </c>
       <c r="G59" t="b">
         <v>1</v>
@@ -3383,258 +4064,267 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>66</v>
       </c>
       <c r="B60" t="s">
+        <v>401</v>
+      </c>
+      <c r="C60" t="s">
         <v>166</v>
       </c>
-      <c r="C60" t="s">
-        <v>266</v>
-      </c>
       <c r="D60" t="s">
-        <v>327</v>
+        <v>227</v>
       </c>
       <c r="E60" t="s">
-        <v>380</v>
+        <v>280</v>
       </c>
       <c r="F60" t="s">
-        <v>418</v>
+        <v>318</v>
       </c>
       <c r="G60" t="b">
         <v>0</v>
       </c>
       <c r="H60" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>67</v>
       </c>
       <c r="B61" t="s">
+        <v>402</v>
+      </c>
+      <c r="C61" t="s">
         <v>167</v>
       </c>
-      <c r="C61" t="s">
-        <v>267</v>
-      </c>
       <c r="D61" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="E61" t="s">
-        <v>381</v>
+        <v>281</v>
       </c>
       <c r="F61" t="s">
-        <v>418</v>
+        <v>318</v>
       </c>
       <c r="G61" t="b">
         <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>68</v>
       </c>
       <c r="B62" t="s">
+        <v>403</v>
+      </c>
+      <c r="C62" t="s">
         <v>168</v>
       </c>
-      <c r="C62" t="s">
-        <v>268</v>
-      </c>
       <c r="D62" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="E62" t="s">
-        <v>382</v>
+        <v>282</v>
       </c>
       <c r="F62" t="s">
-        <v>418</v>
+        <v>318</v>
       </c>
       <c r="G62" t="b">
         <v>0</v>
       </c>
       <c r="H62" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>69</v>
       </c>
       <c r="B63" t="s">
+        <v>404</v>
+      </c>
+      <c r="C63" t="s">
         <v>169</v>
       </c>
-      <c r="C63" t="s">
-        <v>269</v>
-      </c>
       <c r="D63" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="E63" t="s">
-        <v>383</v>
+        <v>283</v>
       </c>
       <c r="F63" t="s">
-        <v>418</v>
+        <v>318</v>
       </c>
       <c r="G63" t="b">
         <v>0</v>
       </c>
       <c r="H63" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>70</v>
       </c>
       <c r="B64" t="s">
+        <v>405</v>
+      </c>
+      <c r="C64" t="s">
         <v>170</v>
       </c>
-      <c r="C64" t="s">
-        <v>270</v>
-      </c>
       <c r="D64" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="E64" t="s">
-        <v>384</v>
+        <v>284</v>
       </c>
       <c r="F64" t="s">
-        <v>418</v>
+        <v>318</v>
       </c>
       <c r="G64" t="b">
         <v>0</v>
       </c>
       <c r="H64" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>71</v>
       </c>
       <c r="B65" t="s">
+        <v>406</v>
+      </c>
+      <c r="C65" t="s">
         <v>171</v>
       </c>
-      <c r="C65" t="s">
-        <v>271</v>
-      </c>
       <c r="D65" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="E65" t="s">
-        <v>385</v>
+        <v>285</v>
       </c>
       <c r="F65" t="s">
-        <v>418</v>
+        <v>318</v>
       </c>
       <c r="G65" t="b">
         <v>0</v>
       </c>
       <c r="H65" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+        <v>320</v>
+      </c>
+      <c r="I65" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>72</v>
       </c>
       <c r="B66" t="s">
+        <v>407</v>
+      </c>
+      <c r="C66" t="s">
         <v>172</v>
       </c>
-      <c r="C66" t="s">
-        <v>272</v>
-      </c>
       <c r="D66" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="E66" t="s">
-        <v>386</v>
+        <v>286</v>
       </c>
       <c r="F66" t="s">
-        <v>418</v>
+        <v>318</v>
       </c>
       <c r="G66" t="b">
         <v>0</v>
       </c>
       <c r="H66" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+        <v>324</v>
+      </c>
+      <c r="I66" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>73</v>
       </c>
       <c r="B67" t="s">
+        <v>408</v>
+      </c>
+      <c r="C67" t="s">
         <v>173</v>
       </c>
-      <c r="C67" t="s">
-        <v>273</v>
-      </c>
       <c r="D67" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="E67" t="s">
-        <v>387</v>
+        <v>287</v>
       </c>
       <c r="F67" t="s">
-        <v>418</v>
+        <v>318</v>
       </c>
       <c r="G67" t="b">
         <v>0</v>
       </c>
       <c r="H67" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>74</v>
       </c>
       <c r="B68" t="s">
+        <v>409</v>
+      </c>
+      <c r="C68" t="s">
         <v>174</v>
       </c>
-      <c r="C68" t="s">
-        <v>274</v>
-      </c>
       <c r="D68" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="E68" t="s">
-        <v>388</v>
+        <v>288</v>
       </c>
       <c r="F68" t="s">
-        <v>418</v>
+        <v>318</v>
       </c>
       <c r="G68" t="b">
         <v>0</v>
       </c>
       <c r="H68" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+        <v>323</v>
+      </c>
+      <c r="I68" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>75</v>
       </c>
       <c r="B69" t="s">
+        <v>410</v>
+      </c>
+      <c r="C69" t="s">
         <v>175</v>
       </c>
-      <c r="C69" t="s">
-        <v>275</v>
-      </c>
       <c r="D69" t="s">
-        <v>328</v>
+        <v>228</v>
       </c>
       <c r="E69" t="s">
-        <v>328</v>
+        <v>228</v>
       </c>
       <c r="F69" t="s">
-        <v>418</v>
+        <v>318</v>
       </c>
       <c r="G69" t="b">
         <v>1</v>
@@ -3643,76 +4333,82 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>76</v>
       </c>
       <c r="B70" t="s">
+        <v>411</v>
+      </c>
+      <c r="C70" t="s">
         <v>176</v>
       </c>
-      <c r="C70" t="s">
-        <v>276</v>
-      </c>
       <c r="D70" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="E70" t="s">
-        <v>389</v>
+        <v>289</v>
       </c>
       <c r="F70" t="s">
-        <v>418</v>
+        <v>318</v>
       </c>
       <c r="G70" t="b">
         <v>0</v>
       </c>
       <c r="H70" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>77</v>
       </c>
       <c r="B71" t="s">
+        <v>412</v>
+      </c>
+      <c r="C71" t="s">
         <v>177</v>
       </c>
-      <c r="C71" t="s">
-        <v>277</v>
-      </c>
       <c r="D71" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="E71" t="s">
-        <v>390</v>
+        <v>290</v>
       </c>
       <c r="F71" t="s">
-        <v>440</v>
+        <v>413</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
       </c>
       <c r="H71" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+        <v>319</v>
+      </c>
+      <c r="I71" t="s">
+        <v>320</v>
+      </c>
+      <c r="J71" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>78</v>
       </c>
       <c r="B72" t="s">
+        <v>414</v>
+      </c>
+      <c r="C72" t="s">
         <v>178</v>
       </c>
-      <c r="C72" t="s">
-        <v>278</v>
-      </c>
       <c r="D72" t="s">
-        <v>329</v>
+        <v>229</v>
       </c>
       <c r="E72" t="s">
-        <v>329</v>
+        <v>229</v>
       </c>
       <c r="F72" t="s">
-        <v>418</v>
+        <v>318</v>
       </c>
       <c r="G72" t="b">
         <v>1</v>
@@ -3721,284 +4417,326 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>79</v>
       </c>
       <c r="B73" t="s">
+        <v>415</v>
+      </c>
+      <c r="C73" t="s">
         <v>179</v>
       </c>
-      <c r="C73" t="s">
-        <v>279</v>
-      </c>
       <c r="D73" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="E73" t="s">
-        <v>391</v>
+        <v>291</v>
       </c>
       <c r="F73" t="s">
-        <v>441</v>
+        <v>416</v>
       </c>
       <c r="G73" t="b">
         <v>0</v>
       </c>
       <c r="H73" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+        <v>319</v>
+      </c>
+      <c r="I73" t="s">
+        <v>323</v>
+      </c>
+      <c r="J73" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>80</v>
       </c>
       <c r="B74" t="s">
+        <v>417</v>
+      </c>
+      <c r="C74" t="s">
         <v>180</v>
       </c>
-      <c r="C74" t="s">
-        <v>280</v>
-      </c>
       <c r="D74" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="E74" t="s">
-        <v>392</v>
+        <v>292</v>
       </c>
       <c r="F74" t="s">
-        <v>442</v>
+        <v>418</v>
       </c>
       <c r="G74" t="b">
         <v>0</v>
       </c>
       <c r="H74" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+        <v>319</v>
+      </c>
+      <c r="I74" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>81</v>
       </c>
       <c r="B75" t="s">
+        <v>419</v>
+      </c>
+      <c r="C75" t="s">
         <v>181</v>
       </c>
-      <c r="C75" t="s">
-        <v>281</v>
-      </c>
       <c r="D75" t="s">
-        <v>330</v>
+        <v>230</v>
       </c>
       <c r="E75" t="s">
-        <v>393</v>
+        <v>293</v>
       </c>
       <c r="F75" t="s">
-        <v>418</v>
+        <v>318</v>
       </c>
       <c r="G75" t="b">
         <v>0</v>
       </c>
       <c r="H75" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+        <v>321</v>
+      </c>
+      <c r="I75" t="s">
+        <v>323</v>
+      </c>
+      <c r="J75" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>82</v>
       </c>
       <c r="B76" t="s">
+        <v>420</v>
+      </c>
+      <c r="C76" t="s">
         <v>182</v>
       </c>
-      <c r="C76" t="s">
-        <v>282</v>
-      </c>
       <c r="D76" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="E76" t="s">
-        <v>394</v>
+        <v>294</v>
       </c>
       <c r="F76" t="s">
-        <v>418</v>
+        <v>318</v>
       </c>
       <c r="G76" t="b">
         <v>0</v>
       </c>
       <c r="H76" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+        <v>320</v>
+      </c>
+      <c r="I76" t="s">
+        <v>323</v>
+      </c>
+      <c r="J76" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>83</v>
       </c>
       <c r="B77" t="s">
+        <v>421</v>
+      </c>
+      <c r="C77" t="s">
         <v>183</v>
       </c>
-      <c r="C77" t="s">
-        <v>283</v>
-      </c>
       <c r="D77" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="E77" t="s">
-        <v>395</v>
+        <v>295</v>
       </c>
       <c r="F77" t="s">
-        <v>443</v>
+        <v>422</v>
       </c>
       <c r="G77" t="b">
         <v>0</v>
       </c>
       <c r="H77" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+        <v>320</v>
+      </c>
+      <c r="I77" t="s">
+        <v>321</v>
+      </c>
+      <c r="J77" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>84</v>
       </c>
       <c r="B78" t="s">
+        <v>423</v>
+      </c>
+      <c r="C78" t="s">
         <v>184</v>
       </c>
-      <c r="C78" t="s">
-        <v>284</v>
-      </c>
       <c r="D78" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="E78" t="s">
-        <v>396</v>
+        <v>296</v>
       </c>
       <c r="F78" t="s">
-        <v>418</v>
+        <v>318</v>
       </c>
       <c r="G78" t="b">
         <v>0</v>
       </c>
       <c r="H78" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+        <v>320</v>
+      </c>
+      <c r="I78" t="s">
+        <v>322</v>
+      </c>
+      <c r="J78" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>85</v>
       </c>
       <c r="B79" t="s">
+        <v>424</v>
+      </c>
+      <c r="C79" t="s">
         <v>185</v>
       </c>
-      <c r="C79" t="s">
-        <v>285</v>
-      </c>
       <c r="D79" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="E79" t="s">
-        <v>397</v>
+        <v>297</v>
       </c>
       <c r="F79" t="s">
-        <v>418</v>
+        <v>318</v>
       </c>
       <c r="G79" t="b">
         <v>0</v>
       </c>
       <c r="H79" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+        <v>324</v>
+      </c>
+      <c r="I79" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>86</v>
       </c>
       <c r="B80" t="s">
+        <v>425</v>
+      </c>
+      <c r="C80" t="s">
         <v>186</v>
       </c>
-      <c r="C80" t="s">
-        <v>286</v>
-      </c>
       <c r="D80" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="E80" t="s">
-        <v>398</v>
+        <v>298</v>
       </c>
       <c r="F80" t="s">
-        <v>444</v>
+        <v>318</v>
       </c>
       <c r="G80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H80" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>87</v>
       </c>
       <c r="B81" t="s">
+        <v>426</v>
+      </c>
+      <c r="C81" t="s">
         <v>187</v>
       </c>
-      <c r="C81" t="s">
-        <v>287</v>
-      </c>
       <c r="D81" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="E81" t="s">
-        <v>399</v>
+        <v>299</v>
       </c>
       <c r="F81" t="s">
-        <v>445</v>
+        <v>427</v>
       </c>
       <c r="G81" t="b">
         <v>0</v>
       </c>
       <c r="H81" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+        <v>319</v>
+      </c>
+      <c r="I81" t="s">
+        <v>323</v>
+      </c>
+      <c r="J81" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>88</v>
       </c>
       <c r="B82" t="s">
+        <v>428</v>
+      </c>
+      <c r="C82" t="s">
         <v>188</v>
       </c>
-      <c r="C82" t="s">
-        <v>288</v>
-      </c>
       <c r="D82" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="E82" t="s">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F82" t="s">
-        <v>418</v>
+        <v>318</v>
       </c>
       <c r="G82" t="b">
         <v>0</v>
       </c>
       <c r="H82" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>89</v>
       </c>
       <c r="B83" t="s">
+        <v>429</v>
+      </c>
+      <c r="C83" t="s">
         <v>189</v>
       </c>
-      <c r="C83" t="s">
-        <v>289</v>
-      </c>
       <c r="D83" t="s">
-        <v>331</v>
+        <v>231</v>
       </c>
       <c r="E83" t="s">
-        <v>331</v>
+        <v>231</v>
       </c>
       <c r="F83" t="s">
-        <v>418</v>
+        <v>318</v>
       </c>
       <c r="G83" t="b">
         <v>1</v>
@@ -4007,154 +4745,169 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>90</v>
       </c>
       <c r="B84" t="s">
+        <v>430</v>
+      </c>
+      <c r="C84" t="s">
         <v>190</v>
       </c>
-      <c r="C84" t="s">
-        <v>290</v>
-      </c>
       <c r="D84" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="E84" t="s">
-        <v>401</v>
+        <v>301</v>
       </c>
       <c r="F84" t="s">
-        <v>418</v>
+        <v>318</v>
       </c>
       <c r="G84" t="b">
         <v>0</v>
       </c>
       <c r="H84" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+        <v>322</v>
+      </c>
+      <c r="I84" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>91</v>
       </c>
       <c r="B85" t="s">
+        <v>431</v>
+      </c>
+      <c r="C85" t="s">
         <v>191</v>
       </c>
-      <c r="C85" t="s">
-        <v>291</v>
-      </c>
       <c r="D85" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="E85" t="s">
-        <v>402</v>
+        <v>302</v>
       </c>
       <c r="F85" t="s">
-        <v>418</v>
+        <v>318</v>
       </c>
       <c r="G85" t="b">
         <v>0</v>
       </c>
       <c r="H85" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+        <v>324</v>
+      </c>
+      <c r="I85" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>92</v>
       </c>
       <c r="B86" t="s">
+        <v>432</v>
+      </c>
+      <c r="C86" t="s">
         <v>192</v>
       </c>
-      <c r="C86" t="s">
-        <v>292</v>
-      </c>
       <c r="D86" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="E86" t="s">
-        <v>403</v>
+        <v>303</v>
       </c>
       <c r="F86" t="s">
-        <v>446</v>
+        <v>318</v>
       </c>
       <c r="G86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H86" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>93</v>
       </c>
       <c r="B87" t="s">
+        <v>433</v>
+      </c>
+      <c r="C87" t="s">
         <v>193</v>
       </c>
-      <c r="C87" t="s">
-        <v>293</v>
-      </c>
       <c r="D87" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="E87" t="s">
-        <v>404</v>
+        <v>304</v>
       </c>
       <c r="F87" t="s">
-        <v>447</v>
+        <v>434</v>
       </c>
       <c r="G87" t="b">
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>94</v>
       </c>
       <c r="B88" t="s">
+        <v>435</v>
+      </c>
+      <c r="C88" t="s">
         <v>194</v>
       </c>
-      <c r="C88" t="s">
-        <v>294</v>
-      </c>
       <c r="D88" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="E88" t="s">
-        <v>405</v>
+        <v>305</v>
       </c>
       <c r="F88" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="G88" t="b">
         <v>0</v>
       </c>
       <c r="H88" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+        <v>319</v>
+      </c>
+      <c r="I88" t="s">
+        <v>321</v>
+      </c>
+      <c r="J88" t="s">
+        <v>323</v>
+      </c>
+      <c r="K88" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>95</v>
       </c>
       <c r="B89" t="s">
+        <v>437</v>
+      </c>
+      <c r="C89" t="s">
         <v>195</v>
       </c>
-      <c r="C89" t="s">
-        <v>295</v>
-      </c>
       <c r="D89" t="s">
-        <v>332</v>
+        <v>232</v>
       </c>
       <c r="E89" t="s">
-        <v>332</v>
+        <v>232</v>
       </c>
       <c r="F89" t="s">
-        <v>418</v>
+        <v>318</v>
       </c>
       <c r="G89" t="b">
         <v>1</v>
@@ -4163,316 +4916,343 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>96</v>
       </c>
       <c r="B90" t="s">
+        <v>438</v>
+      </c>
+      <c r="C90" t="s">
         <v>196</v>
       </c>
-      <c r="C90" t="s">
-        <v>296</v>
-      </c>
       <c r="D90" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="E90" t="s">
-        <v>406</v>
+        <v>306</v>
       </c>
       <c r="F90" t="s">
-        <v>449</v>
+        <v>318</v>
       </c>
       <c r="G90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H90" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>97</v>
       </c>
       <c r="B91" t="s">
+        <v>439</v>
+      </c>
+      <c r="C91" t="s">
         <v>197</v>
       </c>
-      <c r="C91" t="s">
-        <v>297</v>
-      </c>
       <c r="D91" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="E91" t="s">
-        <v>407</v>
+        <v>307</v>
       </c>
       <c r="F91" t="s">
-        <v>418</v>
+        <v>318</v>
       </c>
       <c r="G91" t="b">
         <v>0</v>
       </c>
       <c r="H91" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>98</v>
       </c>
       <c r="B92" t="s">
+        <v>440</v>
+      </c>
+      <c r="C92" t="s">
         <v>198</v>
       </c>
-      <c r="C92" t="s">
-        <v>298</v>
-      </c>
       <c r="D92" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="E92" t="s">
-        <v>408</v>
+        <v>308</v>
       </c>
       <c r="F92" t="s">
-        <v>418</v>
+        <v>318</v>
       </c>
       <c r="G92" t="b">
         <v>0</v>
       </c>
       <c r="H92" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>99</v>
       </c>
       <c r="B93" t="s">
+        <v>441</v>
+      </c>
+      <c r="C93" t="s">
         <v>199</v>
       </c>
-      <c r="C93" t="s">
-        <v>299</v>
-      </c>
       <c r="D93" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="E93" t="s">
-        <v>409</v>
+        <v>309</v>
       </c>
       <c r="F93" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="G93" t="b">
         <v>0</v>
       </c>
       <c r="H93" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+        <v>319</v>
+      </c>
+      <c r="I93" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>100</v>
       </c>
       <c r="B94" t="s">
+        <v>443</v>
+      </c>
+      <c r="C94" t="s">
         <v>200</v>
       </c>
-      <c r="C94" t="s">
-        <v>300</v>
-      </c>
       <c r="D94" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="E94" t="s">
-        <v>410</v>
+        <v>310</v>
       </c>
       <c r="F94" t="s">
-        <v>418</v>
+        <v>318</v>
       </c>
       <c r="G94" t="b">
         <v>0</v>
       </c>
       <c r="H94" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>101</v>
       </c>
       <c r="B95" t="s">
+        <v>444</v>
+      </c>
+      <c r="C95" t="s">
         <v>201</v>
       </c>
-      <c r="C95" t="s">
-        <v>301</v>
-      </c>
       <c r="D95" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="E95" t="s">
-        <v>411</v>
+        <v>311</v>
       </c>
       <c r="F95" t="s">
-        <v>418</v>
+        <v>318</v>
       </c>
       <c r="G95" t="b">
         <v>0</v>
       </c>
       <c r="H95" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+        <v>321</v>
+      </c>
+      <c r="I95" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>102</v>
       </c>
       <c r="B96" t="s">
+        <v>445</v>
+      </c>
+      <c r="C96" t="s">
         <v>202</v>
       </c>
-      <c r="C96" t="s">
-        <v>302</v>
-      </c>
       <c r="D96" t="s">
+        <v>212</v>
+      </c>
+      <c r="E96" t="s">
         <v>312</v>
       </c>
-      <c r="E96" t="s">
-        <v>412</v>
-      </c>
       <c r="F96" t="s">
-        <v>418</v>
+        <v>318</v>
       </c>
       <c r="G96" t="b">
         <v>0</v>
       </c>
       <c r="H96" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+        <v>323</v>
+      </c>
+      <c r="I96" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>103</v>
       </c>
       <c r="B97" t="s">
+        <v>446</v>
+      </c>
+      <c r="C97" t="s">
         <v>203</v>
       </c>
-      <c r="C97" t="s">
-        <v>303</v>
-      </c>
       <c r="D97" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="E97" t="s">
-        <v>413</v>
+        <v>313</v>
       </c>
       <c r="F97" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="G97" t="b">
         <v>0</v>
       </c>
       <c r="H97" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+        <v>319</v>
+      </c>
+      <c r="I97" t="s">
+        <v>322</v>
+      </c>
+      <c r="J97" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>104</v>
       </c>
       <c r="B98" t="s">
+        <v>448</v>
+      </c>
+      <c r="C98" t="s">
         <v>204</v>
       </c>
-      <c r="C98" t="s">
-        <v>304</v>
-      </c>
       <c r="D98" t="s">
-        <v>310</v>
+        <v>449</v>
       </c>
       <c r="E98" t="s">
-        <v>414</v>
+        <v>314</v>
       </c>
       <c r="F98" t="s">
-        <v>452</v>
+        <v>318</v>
       </c>
       <c r="G98" t="b">
         <v>0</v>
       </c>
       <c r="H98" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+        <v>319</v>
+      </c>
+      <c r="I98" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>105</v>
       </c>
       <c r="B99" t="s">
+        <v>450</v>
+      </c>
+      <c r="C99" t="s">
         <v>205</v>
       </c>
-      <c r="C99" t="s">
-        <v>305</v>
-      </c>
       <c r="D99" t="s">
-        <v>333</v>
+        <v>233</v>
       </c>
       <c r="E99" t="s">
-        <v>415</v>
+        <v>315</v>
       </c>
       <c r="F99" t="s">
-        <v>418</v>
+        <v>318</v>
       </c>
       <c r="G99" t="b">
         <v>0</v>
       </c>
       <c r="H99" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+        <v>323</v>
+      </c>
+      <c r="I99" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>106</v>
       </c>
       <c r="B100" t="s">
+        <v>451</v>
+      </c>
+      <c r="C100" t="s">
         <v>206</v>
       </c>
-      <c r="C100" t="s">
-        <v>306</v>
-      </c>
       <c r="D100" t="s">
-        <v>310</v>
+        <v>221</v>
       </c>
       <c r="E100" t="s">
-        <v>416</v>
+        <v>316</v>
       </c>
       <c r="F100" t="s">
-        <v>453</v>
+        <v>318</v>
       </c>
       <c r="G100" t="b">
         <v>0</v>
       </c>
       <c r="H100" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+        <v>319</v>
+      </c>
+      <c r="I100" t="s">
+        <v>320</v>
+      </c>
+      <c r="J100" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>107</v>
       </c>
       <c r="B101" t="s">
+        <v>452</v>
+      </c>
+      <c r="C101" t="s">
         <v>207</v>
       </c>
-      <c r="C101" t="s">
-        <v>307</v>
-      </c>
       <c r="D101" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="E101" t="s">
-        <v>417</v>
+        <v>317</v>
       </c>
       <c r="F101" t="s">
-        <v>418</v>
+        <v>318</v>
       </c>
       <c r="G101" t="b">
         <v>0</v>
       </c>
       <c r="H101" t="s">
-        <v>459</v>
+        <v>324</v>
       </c>
     </row>
   </sheetData>
